--- a/data/5.4.3_EL/graphen_bereinigt.xlsx
+++ b/data/5.4.3_EL/graphen_bereinigt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svetlanayakutina/Documents/GitHub/Digitalisat2Graph/data/5.4.3_EL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67C7433-DFE4-A248-A302-2CC552137F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A14F95-7B98-3240-90A5-75E79064CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="22500" windowHeight="23160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21680" yWindow="500" windowWidth="22500" windowHeight="23160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$521</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle3!$A$1:$W$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12682" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12672" uniqueCount="1779">
   <si>
     <t>text</t>
   </si>
@@ -5322,6 +5322,60 @@
   </si>
   <si>
     <t>NBG 1863</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann G. und Johanna D. Bonatz</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann A. und Justine M. Küster</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann H. Schmitt</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johannes F. Hoffmann und G. Hornig</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Maria E. Hoffmann</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Gottfried Clemens, Johannes F. Lemmerz und Christian I. Latrobe</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johannes Fritsch und Johann G. Schulz</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Sophie E. Suhl</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Cart R. und Bertha Kölbing</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Agnes Lemmerz</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Juliana B. Schulz</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann C. Breutel</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann A. Bonatz</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Agnes Lemmerz </t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann A. und Justine M. Küster </t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann J. F. Stein</t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Johann C. Breutel </t>
+  </si>
+  <si>
+    <t>Weg zum Missonsort (Südafrika): Gottfried Clemens, Johannes F. Lemmerz und Christian I. Latrobe </t>
   </si>
 </sst>
 </file>
@@ -5409,7 +5463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5421,6 +5475,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5724,11 +5779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W522"/>
+  <dimension ref="A1:W521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J527" sqref="J527"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S244" sqref="S244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5809,7 +5863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>409</v>
       </c>
@@ -5869,7 +5923,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>929</v>
       </c>
@@ -5935,7 +5989,7 @@
         <v>12.469225</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1021</v>
       </c>
@@ -6001,7 +6055,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>946</v>
       </c>
@@ -6061,7 +6115,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -6121,7 +6175,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>937</v>
       </c>
@@ -6181,7 +6235,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>941</v>
       </c>
@@ -6247,7 +6301,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>941</v>
       </c>
@@ -6313,7 +6367,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>952</v>
       </c>
@@ -6379,7 +6433,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>959</v>
       </c>
@@ -6445,7 +6499,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>972</v>
       </c>
@@ -6505,7 +6559,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>974</v>
       </c>
@@ -6565,7 +6619,7 @@
         <v>14.423888888</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>979</v>
       </c>
@@ -6625,7 +6679,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>359</v>
       </c>
@@ -6676,7 +6730,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>934</v>
       </c>
@@ -6736,7 +6790,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>937</v>
       </c>
@@ -6796,7 +6850,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>949</v>
       </c>
@@ -6862,7 +6916,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>954</v>
       </c>
@@ -6922,7 +6976,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>957</v>
       </c>
@@ -6982,7 +7036,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>959</v>
       </c>
@@ -7048,7 +7102,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>963</v>
       </c>
@@ -7108,7 +7162,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>965</v>
       </c>
@@ -7174,7 +7228,7 @@
         <v>26.833055555000001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1759</v>
       </c>
@@ -7213,8 +7267,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L24</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N24" t="s">
-        <v>1461</v>
+      <c r="N24" s="7" t="s">
+        <v>1774</v>
       </c>
       <c r="O24" t="s">
         <v>1453</v>
@@ -7223,7 +7277,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1083</v>
       </c>
@@ -7277,7 +7331,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7337,7 +7391,7 @@
         <v>11.968888888</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>324</v>
       </c>
@@ -7403,7 +7457,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7457,7 +7511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -7511,7 +7565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7565,7 +7619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -7619,7 +7673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1094</v>
       </c>
@@ -7673,7 +7727,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1441</v>
       </c>
@@ -7733,7 +7787,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1071</v>
       </c>
@@ -7793,7 +7847,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1069</v>
       </c>
@@ -7853,7 +7907,7 @@
         <v>11.779444443999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1077</v>
       </c>
@@ -7919,7 +7973,7 @@
         <v>5.233333333</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1074</v>
       </c>
@@ -7979,7 +8033,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -8045,7 +8099,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1080</v>
       </c>
@@ -8111,7 +8165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1099</v>
       </c>
@@ -8177,7 +8231,7 @@
         <v>19.758333332999999</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>49</v>
       </c>
@@ -8207,8 +8261,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L41</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N41" t="s">
-        <v>1461</v>
+      <c r="N41" s="7" t="s">
+        <v>1761</v>
       </c>
       <c r="O41" t="s">
         <v>1453</v>
@@ -8217,7 +8271,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>729</v>
       </c>
@@ -8283,7 +8337,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>546</v>
       </c>
@@ -8337,7 +8391,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>546</v>
       </c>
@@ -8391,7 +8445,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>558</v>
       </c>
@@ -8451,7 +8505,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>562</v>
       </c>
@@ -8511,7 +8565,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>869</v>
       </c>
@@ -8577,7 +8631,7 @@
         <v>13.171666666</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>924</v>
       </c>
@@ -8643,7 +8697,7 @@
         <v>10.910560328000001</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>571</v>
       </c>
@@ -8703,7 +8757,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>532</v>
       </c>
@@ -8757,7 +8811,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -8817,7 +8871,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>583</v>
       </c>
@@ -8883,7 +8937,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>598</v>
       </c>
@@ -8949,7 +9003,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>604</v>
       </c>
@@ -9015,7 +9069,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>607</v>
       </c>
@@ -9066,7 +9120,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>541</v>
       </c>
@@ -9120,7 +9174,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>554</v>
       </c>
@@ -9180,7 +9234,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>562</v>
       </c>
@@ -9246,7 +9300,7 @@
         <v>9.4830559999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>488</v>
       </c>
@@ -9276,8 +9330,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L59</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N59" t="s">
-        <v>1461</v>
+      <c r="N59" s="7" t="s">
+        <v>1775</v>
       </c>
       <c r="O59" t="s">
         <v>1453</v>
@@ -9286,7 +9340,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1342</v>
       </c>
@@ -9340,7 +9394,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -9400,7 +9454,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -9454,7 +9508,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -9520,7 +9574,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>295</v>
       </c>
@@ -9586,7 +9640,7 @@
         <v>12.753611111</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -9646,7 +9700,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -9706,7 +9760,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -9766,7 +9820,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +9874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -9874,7 +9928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -9934,7 +9988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -9994,7 +10048,7 @@
         <v>5.233333333</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -10054,7 +10108,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -10114,7 +10168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -10174,7 +10228,7 @@
         <v>9.1406200000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>246</v>
       </c>
@@ -10240,7 +10294,7 @@
         <v>24.341000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>251</v>
       </c>
@@ -10306,7 +10360,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>259</v>
       </c>
@@ -10372,7 +10426,7 @@
         <v>12.753611111</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -10432,7 +10486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -10492,7 +10546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -10558,7 +10612,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>27</v>
       </c>
@@ -10588,8 +10642,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L81</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N81" t="s">
-        <v>1461</v>
+      <c r="N81" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="O81" t="s">
         <v>1453</v>
@@ -10598,7 +10652,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>610</v>
       </c>
@@ -10652,7 +10706,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>614</v>
       </c>
@@ -10712,7 +10766,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>672</v>
       </c>
@@ -10766,7 +10820,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>680</v>
       </c>
@@ -10826,7 +10880,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>686</v>
       </c>
@@ -10886,7 +10940,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>692</v>
       </c>
@@ -10946,7 +11000,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>705</v>
       </c>
@@ -11006,7 +11060,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>705</v>
       </c>
@@ -11066,7 +11120,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>475</v>
       </c>
@@ -11132,7 +11186,7 @@
         <v>17.928191625</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>577</v>
       </c>
@@ -11198,7 +11252,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>698</v>
       </c>
@@ -11258,7 +11312,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>717</v>
       </c>
@@ -11318,7 +11372,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>620</v>
       </c>
@@ -11378,7 +11432,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>640</v>
       </c>
@@ -11444,7 +11498,7 @@
         <v>15.18361</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>646</v>
       </c>
@@ -11504,7 +11558,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>648</v>
       </c>
@@ -11564,7 +11618,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>692</v>
       </c>
@@ -11630,7 +11684,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>703</v>
       </c>
@@ -11696,7 +11750,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>711</v>
       </c>
@@ -11762,7 +11816,7 @@
         <v>26.833055555000001</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>612</v>
       </c>
@@ -11816,7 +11870,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>725</v>
       </c>
@@ -11882,7 +11936,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>479</v>
       </c>
@@ -11912,8 +11966,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L103</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N103" t="s">
-        <v>1461</v>
+      <c r="N103" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="O103" t="s">
         <v>1453</v>
@@ -11922,7 +11976,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1410</v>
       </c>
@@ -11982,7 +12036,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>586</v>
       </c>
@@ -12048,7 +12102,7 @@
         <v>10.270799999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>634</v>
       </c>
@@ -12114,7 +12168,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1430</v>
       </c>
@@ -12174,7 +12228,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1424</v>
       </c>
@@ -12240,7 +12294,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1433</v>
       </c>
@@ -12306,7 +12360,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1407</v>
       </c>
@@ -12366,7 +12420,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
         <v>590</v>
       </c>
@@ -12396,8 +12450,8 @@
         <f t="shared" ref="M111:M112" si="2">"https://www.wikidata.org/wiki/"&amp;L111</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N111" t="s">
-        <v>1461</v>
+      <c r="N111" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="O111" t="s">
         <v>1453</v>
@@ -12406,7 +12460,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
         <v>590</v>
       </c>
@@ -12436,8 +12490,8 @@
         <f t="shared" si="2"/>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N112" t="s">
-        <v>1461</v>
+      <c r="N112" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="O112" t="s">
         <v>1453</v>
@@ -12446,7 +12500,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>981</v>
       </c>
@@ -12500,7 +12554,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>333</v>
       </c>
@@ -12560,7 +12614,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>946</v>
       </c>
@@ -12620,7 +12674,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>946</v>
       </c>
@@ -12680,7 +12734,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>972</v>
       </c>
@@ -12740,7 +12794,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>946</v>
       </c>
@@ -12791,7 +12845,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>280</v>
       </c>
@@ -12851,7 +12905,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -12905,7 +12959,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>292</v>
       </c>
@@ -12965,7 +13019,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1023</v>
       </c>
@@ -13031,7 +13085,7 @@
         <v>8.1161111110000004</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1039</v>
       </c>
@@ -13097,7 +13151,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>333</v>
       </c>
@@ -13157,7 +13211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>333</v>
       </c>
@@ -13208,7 +13262,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>327</v>
       </c>
@@ -13268,7 +13322,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>286</v>
       </c>
@@ -13328,7 +13382,7 @@
         <v>11.779444443999999</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -13394,7 +13448,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>347</v>
       </c>
@@ -13460,7 +13514,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>353</v>
       </c>
@@ -13520,7 +13574,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>366</v>
       </c>
@@ -13571,7 +13625,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>274</v>
       </c>
@@ -13631,7 +13685,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -13691,7 +13745,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
         <v>269</v>
       </c>
@@ -13721,8 +13775,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L134</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N134" t="s">
-        <v>1461</v>
+      <c r="N134" s="7" t="s">
+        <v>1766</v>
       </c>
       <c r="O134" t="s">
         <v>1453</v>
@@ -13731,7 +13785,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1392</v>
       </c>
@@ -13785,7 +13839,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>233</v>
       </c>
@@ -13839,7 +13893,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>457</v>
       </c>
@@ -13899,7 +13953,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>470</v>
       </c>
@@ -13959,7 +14013,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>487</v>
       </c>
@@ -14013,7 +14067,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>499</v>
       </c>
@@ -14073,7 +14127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -14127,7 +14181,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1086</v>
       </c>
@@ -14193,7 +14247,7 @@
         <v>8.1998305550000001</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1157</v>
       </c>
@@ -14259,7 +14313,7 @@
         <v>12.9756</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>493</v>
       </c>
@@ -14319,7 +14373,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>454</v>
       </c>
@@ -14379,7 +14433,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>515</v>
       </c>
@@ -14433,7 +14487,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>464</v>
       </c>
@@ -14499,7 +14553,7 @@
         <v>0.36861111099999999</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>508</v>
       </c>
@@ -14559,7 +14613,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>450</v>
       </c>
@@ -14613,7 +14667,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>441</v>
       </c>
@@ -14673,7 +14727,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>535</v>
       </c>
@@ -14733,7 +14787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>535</v>
       </c>
@@ -14793,7 +14847,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
         <v>445</v>
       </c>
@@ -14823,8 +14877,8 @@
         <f t="shared" ref="M153:M154" si="4">"https://www.wikidata.org/wiki/"&amp;L153</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N153" t="s">
-        <v>1452</v>
+      <c r="N153" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="O153" t="s">
         <v>1453</v>
@@ -14833,7 +14887,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E154" t="s">
         <v>445</v>
       </c>
@@ -14863,8 +14917,8 @@
         <f t="shared" si="4"/>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N154" t="s">
-        <v>1461</v>
+      <c r="N154" s="7" t="s">
+        <v>1763</v>
       </c>
       <c r="O154" t="s">
         <v>1453</v>
@@ -14873,7 +14927,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>878</v>
       </c>
@@ -14933,7 +14987,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1370</v>
       </c>
@@ -14993,7 +15047,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1374</v>
       </c>
@@ -15053,7 +15107,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1382</v>
       </c>
@@ -15107,7 +15161,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1286</v>
       </c>
@@ -15173,7 +15227,7 @@
         <v>11.263333333</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1311</v>
       </c>
@@ -15239,7 +15293,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1399</v>
       </c>
@@ -15290,7 +15344,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1367</v>
       </c>
@@ -15350,7 +15404,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>298</v>
       </c>
@@ -15416,7 +15470,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1348</v>
       </c>
@@ -15476,7 +15530,7 @@
         <v>9.9332999999999991</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1380</v>
       </c>
@@ -15536,7 +15590,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1405</v>
       </c>
@@ -15596,7 +15650,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1353</v>
       </c>
@@ -15662,7 +15716,7 @@
         <v>14.807222222</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1359</v>
       </c>
@@ -15722,7 +15776,7 @@
         <v>13.066666666</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1364</v>
       </c>
@@ -15788,7 +15842,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1374</v>
       </c>
@@ -15854,7 +15908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1389</v>
       </c>
@@ -15920,7 +15974,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1389</v>
       </c>
@@ -15986,7 +16040,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E173" t="s">
         <v>1289</v>
       </c>
@@ -16016,8 +16070,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L173</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N173" t="s">
-        <v>1461</v>
+      <c r="N173" s="7" t="s">
+        <v>1776</v>
       </c>
       <c r="O173" t="s">
         <v>1453</v>
@@ -16026,7 +16080,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>623</v>
       </c>
@@ -16086,7 +16140,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1196</v>
       </c>
@@ -16146,7 +16200,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1319</v>
       </c>
@@ -16200,7 +16254,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1330</v>
       </c>
@@ -16254,7 +16308,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1335</v>
       </c>
@@ -16314,7 +16368,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1402</v>
       </c>
@@ -16380,7 +16434,7 @@
         <v>12.9756</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1413</v>
       </c>
@@ -16446,7 +16500,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1339</v>
       </c>
@@ -16506,7 +16560,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1323</v>
       </c>
@@ -16566,7 +16620,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>650</v>
       </c>
@@ -16632,7 +16686,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1321</v>
       </c>
@@ -16698,7 +16752,7 @@
         <v>17.903232874</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1321</v>
       </c>
@@ -16764,7 +16818,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1199</v>
       </c>
@@ -16815,7 +16869,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1314</v>
       </c>
@@ -16875,7 +16929,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1317</v>
       </c>
@@ -16935,7 +16989,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1147</v>
       </c>
@@ -16986,7 +17040,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1061</v>
       </c>
@@ -17046,7 +17100,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1047</v>
       </c>
@@ -17106,7 +17160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1001</v>
       </c>
@@ -17166,7 +17220,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1012</v>
       </c>
@@ -17226,7 +17280,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1018</v>
       </c>
@@ -17280,7 +17334,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1418</v>
       </c>
@@ -17346,7 +17400,7 @@
         <v>11.040555554999999</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1444</v>
       </c>
@@ -17412,7 +17466,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1015</v>
       </c>
@@ -17466,7 +17520,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1005</v>
       </c>
@@ -17520,7 +17574,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>996</v>
       </c>
@@ -17580,7 +17634,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>993</v>
       </c>
@@ -17646,7 +17700,7 @@
         <v>10.910560328000001</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1005</v>
       </c>
@@ -17706,7 +17760,7 @@
         <v>15.18361</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1010</v>
       </c>
@@ -17766,7 +17820,7 @@
         <v>15.18361</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1029</v>
       </c>
@@ -17826,7 +17880,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1034</v>
       </c>
@@ -17886,7 +17940,7 @@
         <v>11.779444443999999</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1036</v>
       </c>
@@ -17952,7 +18006,7 @@
         <v>19.758333332999999</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1042</v>
       </c>
@@ -18018,7 +18072,7 @@
         <v>5.233333333</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1045</v>
       </c>
@@ -18078,7 +18132,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>985</v>
       </c>
@@ -18132,7 +18186,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>998</v>
       </c>
@@ -18195,7 +18249,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1032</v>
       </c>
@@ -18255,7 +18309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -18315,7 +18369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>246</v>
       </c>
@@ -18381,7 +18435,7 @@
         <v>24.341000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -18447,7 +18501,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -18507,7 +18561,7 @@
         <v>14.649305555</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>311</v>
       </c>
@@ -18573,7 +18627,7 @@
         <v>14.649305555</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>318</v>
       </c>
@@ -18639,7 +18693,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -18693,7 +18747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>75</v>
       </c>
@@ -18747,7 +18801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>75</v>
       </c>
@@ -18801,7 +18855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>111</v>
       </c>
@@ -18855,7 +18909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1447</v>
       </c>
@@ -18906,7 +18960,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1441</v>
       </c>
@@ -18966,7 +19020,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1438</v>
       </c>
@@ -19026,7 +19080,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1092</v>
       </c>
@@ -19077,7 +19131,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>66</v>
       </c>
@@ -19143,7 +19197,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E226" t="s">
         <v>49</v>
       </c>
@@ -19173,8 +19227,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L226</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N226" t="s">
-        <v>1461</v>
+      <c r="N226" s="7" t="s">
+        <v>1761</v>
       </c>
       <c r="O226" t="s">
         <v>1453</v>
@@ -19183,7 +19237,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>717</v>
       </c>
@@ -19243,7 +19297,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>698</v>
       </c>
@@ -19303,7 +19357,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>703</v>
       </c>
@@ -19369,7 +19423,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>714</v>
       </c>
@@ -19420,7 +19474,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>656</v>
       </c>
@@ -19486,7 +19540,7 @@
         <v>14.516666666000001</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>668</v>
       </c>
@@ -19552,7 +19606,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>897</v>
       </c>
@@ -19612,7 +19666,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>900</v>
       </c>
@@ -19678,7 +19732,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>903</v>
       </c>
@@ -19738,7 +19792,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>909</v>
       </c>
@@ -19804,7 +19858,7 @@
         <v>26.833055555000001</v>
       </c>
     </row>
-    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>914</v>
       </c>
@@ -19870,7 +19924,7 @@
         <v>19.758333332999999</v>
       </c>
     </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>914</v>
       </c>
@@ -19936,7 +19990,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>919</v>
       </c>
@@ -20002,7 +20056,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>922</v>
       </c>
@@ -20053,7 +20107,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>912</v>
       </c>
@@ -20119,7 +20173,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E242" t="s">
         <v>660</v>
       </c>
@@ -20149,8 +20203,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L242</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N242" t="s">
-        <v>1461</v>
+      <c r="N242" s="7" t="s">
+        <v>1765</v>
       </c>
       <c r="O242" t="s">
         <v>1453</v>
@@ -20159,7 +20213,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1130</v>
       </c>
@@ -20219,7 +20273,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E244" t="s">
         <v>852</v>
       </c>
@@ -20249,8 +20303,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L244</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N244" t="s">
-        <v>1461</v>
+      <c r="N244" s="7" t="s">
+        <v>1769</v>
       </c>
       <c r="O244" t="s">
         <v>1453</v>
@@ -20259,7 +20313,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>571</v>
       </c>
@@ -20319,7 +20373,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E246" t="s">
         <v>488</v>
       </c>
@@ -20349,8 +20403,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L246</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N246" t="s">
-        <v>1461</v>
+      <c r="N246" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="O246" t="s">
         <v>1453</v>
@@ -20359,7 +20413,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>355</v>
       </c>
@@ -20410,7 +20464,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>981</v>
       </c>
@@ -20464,7 +20518,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1430</v>
       </c>
@@ -20524,7 +20578,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1433</v>
       </c>
@@ -20590,7 +20644,7 @@
         <v>25.545000000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>493</v>
       </c>
@@ -20650,7 +20704,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1193</v>
       </c>
@@ -20710,7 +20764,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1163</v>
       </c>
@@ -20776,7 +20830,7 @@
         <v>-79.033333330000005</v>
       </c>
     </row>
-    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1377</v>
       </c>
@@ -20842,7 +20896,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1323</v>
       </c>
@@ -20902,7 +20956,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1163</v>
       </c>
@@ -20962,7 +21016,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1163</v>
       </c>
@@ -21022,7 +21076,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>650</v>
       </c>
@@ -21088,7 +21142,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1190</v>
       </c>
@@ -21154,7 +21208,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1163</v>
       </c>
@@ -21214,7 +21268,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E261" t="s">
         <v>627</v>
       </c>
@@ -21244,8 +21298,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L261</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N261" t="s">
-        <v>1461</v>
+      <c r="N261" s="7" t="s">
+        <v>1768</v>
       </c>
       <c r="O261" t="s">
         <v>1453</v>
@@ -21254,7 +21308,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>350</v>
       </c>
@@ -21320,7 +21374,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>840</v>
       </c>
@@ -21374,7 +21428,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1184</v>
       </c>
@@ -21440,7 +21494,7 @@
         <v>10.154444443999999</v>
       </c>
     </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1273</v>
       </c>
@@ -21506,7 +21560,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>884</v>
       </c>
@@ -21566,7 +21620,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>878</v>
       </c>
@@ -21626,7 +21680,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>814</v>
       </c>
@@ -21680,7 +21734,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>814</v>
       </c>
@@ -21734,7 +21788,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>845</v>
       </c>
@@ -21794,7 +21848,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>829</v>
       </c>
@@ -21860,7 +21914,7 @@
         <v>11.077500000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>857</v>
       </c>
@@ -21920,7 +21974,7 @@
         <v>5.233333333</v>
       </c>
     </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>857</v>
       </c>
@@ -21980,7 +22034,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>894</v>
       </c>
@@ -22046,7 +22100,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>435</v>
       </c>
@@ -22097,7 +22151,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>826</v>
       </c>
@@ -22157,7 +22211,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>835</v>
       </c>
@@ -22217,7 +22271,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>891</v>
       </c>
@@ -22280,7 +22334,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E279" t="s">
         <v>827</v>
       </c>
@@ -22310,8 +22364,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L279</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N279" t="s">
-        <v>1461</v>
+      <c r="N279" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="O279" t="s">
         <v>1453</v>
@@ -22320,7 +22374,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>199</v>
       </c>
@@ -22374,7 +22428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>204</v>
       </c>
@@ -22428,7 +22482,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>191</v>
       </c>
@@ -22482,7 +22536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>199</v>
       </c>
@@ -22542,7 +22596,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1244</v>
       </c>
@@ -22602,7 +22656,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1244</v>
       </c>
@@ -22662,7 +22716,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1244</v>
       </c>
@@ -22722,7 +22776,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1261</v>
       </c>
@@ -22782,7 +22836,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1267</v>
       </c>
@@ -22842,7 +22896,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1228</v>
       </c>
@@ -22896,7 +22950,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1258</v>
       </c>
@@ -22962,7 +23016,7 @@
         <v>14.758333332999999</v>
       </c>
     </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1234</v>
       </c>
@@ -23022,7 +23076,7 @@
         <v>14.758333332999999</v>
       </c>
     </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>414</v>
       </c>
@@ -23076,7 +23130,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>432</v>
       </c>
@@ -23136,7 +23190,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>672</v>
       </c>
@@ -23190,7 +23244,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1276</v>
       </c>
@@ -23256,7 +23310,7 @@
         <v>14.987222222</v>
       </c>
     </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1283</v>
       </c>
@@ -23322,7 +23376,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>884</v>
       </c>
@@ -23382,7 +23436,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>426</v>
       </c>
@@ -23442,7 +23496,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>381</v>
       </c>
@@ -23496,7 +23550,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>381</v>
       </c>
@@ -23550,7 +23604,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>419</v>
       </c>
@@ -23610,7 +23664,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>397</v>
       </c>
@@ -23670,7 +23724,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>419</v>
       </c>
@@ -23730,7 +23784,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>891</v>
       </c>
@@ -23796,7 +23850,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E305" t="s">
         <v>479</v>
       </c>
@@ -23826,8 +23880,8 @@
         <f>"https://www.wikidata.org/wiki/"&amp;L305</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N305" t="s">
-        <v>1461</v>
+      <c r="N305" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="O305" t="s">
         <v>1453</v>
@@ -23836,7 +23890,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>94</v>
       </c>
@@ -23902,7 +23956,7 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -23968,7 +24022,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1385</v>
       </c>
@@ -24019,7 +24073,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1244</v>
       </c>
@@ -24079,7 +24133,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1244</v>
       </c>
@@ -24139,7 +24193,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1244</v>
       </c>
@@ -24190,7 +24244,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1301</v>
       </c>
@@ -24250,7 +24304,7 @@
         <v>4.6405555549999997</v>
       </c>
     </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>191</v>
       </c>
@@ -24304,7 +24358,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>216</v>
       </c>
@@ -24364,7 +24418,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>381</v>
       </c>
@@ -24418,7 +24472,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>405</v>
       </c>
@@ -24469,7 +24523,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1261</v>
       </c>
@@ -24529,7 +24583,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1261</v>
       </c>
@@ -24589,7 +24643,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1261</v>
       </c>
@@ -24640,7 +24694,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1163</v>
       </c>
@@ -24700,7 +24754,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1163</v>
       </c>
@@ -24760,7 +24814,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1182</v>
       </c>
@@ -24811,7 +24865,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1163</v>
       </c>
@@ -24871,7 +24925,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1244</v>
       </c>
@@ -24931,7 +24985,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1244</v>
       </c>
@@ -24991,7 +25045,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1244</v>
       </c>
@@ -25042,7 +25096,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1244</v>
       </c>
@@ -25093,7 +25147,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>518</v>
       </c>
@@ -25153,7 +25207,7 @@
         <v>13.005555555000001</v>
       </c>
     </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>518</v>
       </c>
@@ -25213,7 +25267,7 @@
         <v>13.005555555000001</v>
       </c>
     </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>518</v>
       </c>
@@ -25267,7 +25321,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>528</v>
       </c>
@@ -25321,7 +25375,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>725</v>
       </c>
@@ -25372,7 +25426,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>164</v>
       </c>
@@ -25438,7 +25492,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>111</v>
       </c>
@@ -25492,7 +25546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>111</v>
       </c>
@@ -25546,7 +25600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>111</v>
       </c>
@@ -25600,7 +25654,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>222</v>
       </c>
@@ -25666,7 +25720,7 @@
         <v>26.833055555000001</v>
       </c>
     </row>
-    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>209</v>
       </c>
@@ -25726,7 +25780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1306</v>
       </c>
@@ -25780,7 +25834,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1306</v>
       </c>
@@ -25834,7 +25888,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1267</v>
       </c>
@@ -25894,7 +25948,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1267</v>
       </c>
@@ -25954,7 +26008,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1267</v>
       </c>
@@ -26005,7 +26059,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1202</v>
       </c>
@@ -26059,7 +26113,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1244</v>
       </c>
@@ -26119,7 +26173,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1244</v>
       </c>
@@ -26179,7 +26233,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1244</v>
       </c>
@@ -26230,7 +26284,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>814</v>
       </c>
@@ -26284,7 +26338,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>814</v>
       </c>
@@ -26338,7 +26392,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1067</v>
       </c>
@@ -26398,7 +26452,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1163</v>
       </c>
@@ -26458,7 +26512,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1163</v>
       </c>
@@ -26518,7 +26572,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1182</v>
       </c>
@@ -26569,7 +26623,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1206</v>
       </c>
@@ -26629,7 +26683,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1339</v>
       </c>
@@ -26689,7 +26743,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1339</v>
       </c>
@@ -26740,7 +26794,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>884</v>
       </c>
@@ -26800,7 +26854,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>884</v>
       </c>
@@ -26860,7 +26914,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1047</v>
       </c>
@@ -26914,7 +26968,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1047</v>
       </c>
@@ -26968,7 +27022,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1047</v>
       </c>
@@ -27028,7 +27082,7 @@
         <v>-77.400000000000006</v>
       </c>
     </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>778</v>
       </c>
@@ -27088,7 +27142,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1094</v>
       </c>
@@ -27142,7 +27196,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>122</v>
       </c>
@@ -27196,7 +27250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>787</v>
       </c>
@@ -27250,7 +27304,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>233</v>
       </c>
@@ -27304,7 +27358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>75</v>
       </c>
@@ -27358,7 +27412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>75</v>
       </c>
@@ -27412,7 +27466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>426</v>
       </c>
@@ -27472,7 +27526,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>75</v>
       </c>
@@ -27526,7 +27580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>75</v>
       </c>
@@ -27580,7 +27634,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1005</v>
       </c>
@@ -27634,7 +27688,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>787</v>
       </c>
@@ -27688,7 +27742,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>787</v>
       </c>
@@ -27739,7 +27793,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1515</v>
       </c>
@@ -27755,8 +27809,8 @@
       <c r="E375" t="s">
         <v>49</v>
       </c>
-      <c r="F375" t="s">
-        <v>1461</v>
+      <c r="F375" s="7" t="s">
+        <v>1761</v>
       </c>
       <c r="G375" t="s">
         <v>1453</v>
@@ -27811,7 +27865,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1515</v>
       </c>
@@ -27827,8 +27881,8 @@
       <c r="E376" t="s">
         <v>49</v>
       </c>
-      <c r="F376" t="s">
-        <v>1461</v>
+      <c r="F376" s="7" t="s">
+        <v>1761</v>
       </c>
       <c r="G376" t="s">
         <v>1453</v>
@@ -27883,7 +27937,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1515</v>
       </c>
@@ -27899,8 +27953,8 @@
       <c r="E377" t="s">
         <v>49</v>
       </c>
-      <c r="F377" t="s">
-        <v>1461</v>
+      <c r="F377" s="7" t="s">
+        <v>1761</v>
       </c>
       <c r="G377" t="s">
         <v>1453</v>
@@ -27955,7 +28009,7 @@
         <v>12.568888888</v>
       </c>
     </row>
-    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1711</v>
       </c>
@@ -27971,8 +28025,8 @@
       <c r="E378" t="s">
         <v>445</v>
       </c>
-      <c r="F378" t="s">
-        <v>1452</v>
+      <c r="F378" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="G378" t="s">
         <v>1453</v>
@@ -28027,7 +28081,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1523</v>
       </c>
@@ -28043,8 +28097,8 @@
       <c r="E379" t="s">
         <v>445</v>
       </c>
-      <c r="F379" t="s">
-        <v>1452</v>
+      <c r="F379" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="G379" t="s">
         <v>1453</v>
@@ -28099,7 +28153,7 @@
         <v>-61.984250000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1714</v>
       </c>
@@ -28115,8 +28169,8 @@
       <c r="E380" t="s">
         <v>445</v>
       </c>
-      <c r="F380" t="s">
-        <v>1452</v>
+      <c r="F380" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="G380" t="s">
         <v>1453</v>
@@ -28168,7 +28222,7 @@
         <v>7.4613888880000001</v>
       </c>
     </row>
-    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1668</v>
       </c>
@@ -28184,8 +28238,8 @@
       <c r="E381" t="s">
         <v>445</v>
       </c>
-      <c r="F381" t="s">
-        <v>1452</v>
+      <c r="F381" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="G381" t="s">
         <v>1453</v>
@@ -28240,7 +28294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1718</v>
       </c>
@@ -28256,8 +28310,8 @@
       <c r="E382" t="s">
         <v>445</v>
       </c>
-      <c r="F382" t="s">
-        <v>1452</v>
+      <c r="F382" s="7" t="s">
+        <v>1500</v>
       </c>
       <c r="G382" t="s">
         <v>1453</v>
@@ -28312,7 +28366,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1524</v>
       </c>
@@ -28328,8 +28382,8 @@
       <c r="E383" t="s">
         <v>373</v>
       </c>
-      <c r="F383" t="s">
-        <v>1740</v>
+      <c r="F383" s="7" t="s">
+        <v>1452</v>
       </c>
       <c r="G383" t="s">
         <v>1453</v>
@@ -28378,7 +28432,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1503</v>
       </c>
@@ -28394,8 +28448,8 @@
       <c r="E384" t="s">
         <v>373</v>
       </c>
-      <c r="F384" t="s">
-        <v>1740</v>
+      <c r="F384" s="7" t="s">
+        <v>1452</v>
       </c>
       <c r="G384" t="s">
         <v>1453</v>
@@ -28444,7 +28498,7 @@
         <v>-62.747222000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1531</v>
       </c>
@@ -28460,8 +28514,8 @@
       <c r="E385" t="s">
         <v>373</v>
       </c>
-      <c r="F385" t="s">
-        <v>1740</v>
+      <c r="F385" s="7" t="s">
+        <v>1452</v>
       </c>
       <c r="G385" t="s">
         <v>1453</v>
@@ -28510,7 +28564,7 @@
         <v>9.9332999999999991</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1536</v>
       </c>
@@ -28526,8 +28580,8 @@
       <c r="E386" t="s">
         <v>373</v>
       </c>
-      <c r="F386" t="s">
-        <v>1740</v>
+      <c r="F386" s="7" t="s">
+        <v>1452</v>
       </c>
       <c r="G386" t="s">
         <v>1453</v>
@@ -28576,7 +28630,7 @@
         <v>-81.183333332999993</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1642</v>
       </c>
@@ -28592,8 +28646,8 @@
       <c r="E387" t="s">
         <v>488</v>
       </c>
-      <c r="F387" t="s">
-        <v>1461</v>
+      <c r="F387" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G387" t="s">
         <v>1453</v>
@@ -28645,7 +28699,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1512</v>
       </c>
@@ -28661,8 +28715,8 @@
       <c r="E388" t="s">
         <v>488</v>
       </c>
-      <c r="F388" t="s">
-        <v>1461</v>
+      <c r="F388" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G388" t="s">
         <v>1453</v>
@@ -28714,7 +28768,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1645</v>
       </c>
@@ -28730,8 +28784,8 @@
       <c r="E389" t="s">
         <v>488</v>
       </c>
-      <c r="F389" t="s">
-        <v>1461</v>
+      <c r="F389" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G389" t="s">
         <v>1453</v>
@@ -28783,7 +28837,7 @@
         <v>9.9332999999999991</v>
       </c>
     </row>
-    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1647</v>
       </c>
@@ -28799,8 +28853,8 @@
       <c r="E390" t="s">
         <v>488</v>
       </c>
-      <c r="F390" t="s">
-        <v>1461</v>
+      <c r="F390" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G390" t="s">
         <v>1453</v>
@@ -28852,7 +28906,7 @@
         <v>9.0511111110000009</v>
       </c>
     </row>
-    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1647</v>
       </c>
@@ -28868,8 +28922,8 @@
       <c r="E391" t="s">
         <v>488</v>
       </c>
-      <c r="F391" t="s">
-        <v>1461</v>
+      <c r="F391" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G391" t="s">
         <v>1453</v>
@@ -28921,7 +28975,7 @@
         <v>7.8852777769999998</v>
       </c>
     </row>
-    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>580</v>
       </c>
@@ -28937,8 +28991,8 @@
       <c r="E392" t="s">
         <v>488</v>
       </c>
-      <c r="F392" t="s">
-        <v>1461</v>
+      <c r="F392" s="7" t="s">
+        <v>1762</v>
       </c>
       <c r="G392" t="s">
         <v>1453</v>
@@ -28990,7 +29044,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1670</v>
       </c>
@@ -29006,8 +29060,8 @@
       <c r="E393" t="s">
         <v>445</v>
       </c>
-      <c r="F393" t="s">
-        <v>1461</v>
+      <c r="F393" s="7" t="s">
+        <v>1763</v>
       </c>
       <c r="G393" t="s">
         <v>1453</v>
@@ -29059,7 +29113,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1673</v>
       </c>
@@ -29075,8 +29129,8 @@
       <c r="E394" t="s">
         <v>445</v>
       </c>
-      <c r="F394" t="s">
-        <v>1461</v>
+      <c r="F394" s="7" t="s">
+        <v>1763</v>
       </c>
       <c r="G394" t="s">
         <v>1453</v>
@@ -29128,7 +29182,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1675</v>
       </c>
@@ -29144,8 +29198,8 @@
       <c r="E395" t="s">
         <v>445</v>
       </c>
-      <c r="F395" t="s">
-        <v>1461</v>
+      <c r="F395" s="7" t="s">
+        <v>1763</v>
       </c>
       <c r="G395" t="s">
         <v>1453</v>
@@ -29197,7 +29251,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1622</v>
       </c>
@@ -29213,8 +29267,8 @@
       <c r="E396" t="s">
         <v>590</v>
       </c>
-      <c r="F396" t="s">
-        <v>1461</v>
+      <c r="F396" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="G396" t="s">
         <v>1453</v>
@@ -29266,7 +29320,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1508</v>
       </c>
@@ -29282,8 +29336,8 @@
       <c r="E397" t="s">
         <v>590</v>
       </c>
-      <c r="F397" t="s">
-        <v>1461</v>
+      <c r="F397" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="G397" t="s">
         <v>1453</v>
@@ -29335,7 +29389,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1625</v>
       </c>
@@ -29351,8 +29405,8 @@
       <c r="E398" t="s">
         <v>590</v>
       </c>
-      <c r="F398" t="s">
-        <v>1461</v>
+      <c r="F398" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="G398" t="s">
         <v>1453</v>
@@ -29404,7 +29458,7 @@
         <v>9.9332999999999991</v>
       </c>
     </row>
-    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1625</v>
       </c>
@@ -29420,8 +29474,8 @@
       <c r="E399" t="s">
         <v>590</v>
       </c>
-      <c r="F399" t="s">
-        <v>1461</v>
+      <c r="F399" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="G399" t="s">
         <v>1453</v>
@@ -29476,7 +29530,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1508</v>
       </c>
@@ -29492,8 +29546,8 @@
       <c r="E400" t="s">
         <v>590</v>
       </c>
-      <c r="F400" t="s">
-        <v>1461</v>
+      <c r="F400" s="7" t="s">
+        <v>1764</v>
       </c>
       <c r="G400" t="s">
         <v>1453</v>
@@ -29545,7 +29599,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1629</v>
       </c>
@@ -29561,8 +29615,8 @@
       <c r="E401" t="s">
         <v>660</v>
       </c>
-      <c r="F401" t="s">
-        <v>1461</v>
+      <c r="F401" s="7" t="s">
+        <v>1765</v>
       </c>
       <c r="G401" t="s">
         <v>1453</v>
@@ -29614,7 +29668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1521</v>
       </c>
@@ -29630,8 +29684,8 @@
       <c r="E402" t="s">
         <v>660</v>
       </c>
-      <c r="F402" t="s">
-        <v>1461</v>
+      <c r="F402" s="7" t="s">
+        <v>1765</v>
       </c>
       <c r="G402" t="s">
         <v>1453</v>
@@ -29680,7 +29734,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1635</v>
       </c>
@@ -29696,8 +29750,8 @@
       <c r="E403" t="s">
         <v>660</v>
       </c>
-      <c r="F403" t="s">
-        <v>1461</v>
+      <c r="F403" s="7" t="s">
+        <v>1765</v>
       </c>
       <c r="G403" t="s">
         <v>1453</v>
@@ -29749,7 +29803,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>900</v>
       </c>
@@ -29765,8 +29819,8 @@
       <c r="E404" t="s">
         <v>660</v>
       </c>
-      <c r="F404" t="s">
-        <v>1461</v>
+      <c r="F404" s="7" t="s">
+        <v>1765</v>
       </c>
       <c r="G404" t="s">
         <v>1453</v>
@@ -29818,7 +29872,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1750</v>
       </c>
@@ -29834,8 +29888,8 @@
       <c r="E405" t="s">
         <v>269</v>
       </c>
-      <c r="F405" t="s">
-        <v>1461</v>
+      <c r="F405" s="7" t="s">
+        <v>1766</v>
       </c>
       <c r="G405" t="s">
         <v>1453</v>
@@ -29887,7 +29941,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1591</v>
       </c>
@@ -29903,8 +29957,8 @@
       <c r="E406" t="s">
         <v>269</v>
       </c>
-      <c r="F406" t="s">
-        <v>1461</v>
+      <c r="F406" s="7" t="s">
+        <v>1766</v>
       </c>
       <c r="G406" t="s">
         <v>1453</v>
@@ -29956,7 +30010,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1594</v>
       </c>
@@ -29972,8 +30026,8 @@
       <c r="E407" t="s">
         <v>269</v>
       </c>
-      <c r="F407" t="s">
-        <v>1461</v>
+      <c r="F407" s="7" t="s">
+        <v>1766</v>
       </c>
       <c r="G407" t="s">
         <v>1453</v>
@@ -30025,7 +30079,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1597</v>
       </c>
@@ -30041,8 +30095,8 @@
       <c r="E408" t="s">
         <v>479</v>
       </c>
-      <c r="F408" t="s">
-        <v>1461</v>
+      <c r="F408" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G408" t="s">
         <v>1453</v>
@@ -30091,7 +30145,7 @@
         <v>8.807222222</v>
       </c>
     </row>
-    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1597</v>
       </c>
@@ -30107,8 +30161,8 @@
       <c r="E409" t="s">
         <v>479</v>
       </c>
-      <c r="F409" t="s">
-        <v>1461</v>
+      <c r="F409" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G409" t="s">
         <v>1453</v>
@@ -30157,7 +30211,7 @@
         <v>11.779444443999999</v>
       </c>
     </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1597</v>
       </c>
@@ -30173,8 +30227,8 @@
       <c r="E410" t="s">
         <v>479</v>
       </c>
-      <c r="F410" t="s">
-        <v>1461</v>
+      <c r="F410" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G410" t="s">
         <v>1453</v>
@@ -30223,7 +30277,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1603</v>
       </c>
@@ -30239,8 +30293,8 @@
       <c r="E411" t="s">
         <v>479</v>
       </c>
-      <c r="F411" t="s">
-        <v>1461</v>
+      <c r="F411" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G411" t="s">
         <v>1453</v>
@@ -30289,7 +30343,7 @@
         <v>8.2138888879999996</v>
       </c>
     </row>
-    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1607</v>
       </c>
@@ -30305,8 +30359,8 @@
       <c r="E412" t="s">
         <v>479</v>
       </c>
-      <c r="F412" t="s">
-        <v>1461</v>
+      <c r="F412" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G412" t="s">
         <v>1453</v>
@@ -30355,7 +30409,7 @@
         <v>7.9008333329999996</v>
       </c>
     </row>
-    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1611</v>
       </c>
@@ -30371,8 +30425,8 @@
       <c r="E413" t="s">
         <v>479</v>
       </c>
-      <c r="F413" t="s">
-        <v>1461</v>
+      <c r="F413" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G413" t="s">
         <v>1453</v>
@@ -30437,8 +30491,8 @@
       <c r="E414" t="s">
         <v>479</v>
       </c>
-      <c r="F414" t="s">
-        <v>1461</v>
+      <c r="F414" s="7" t="s">
+        <v>1767</v>
       </c>
       <c r="G414" t="s">
         <v>1453</v>
@@ -30487,7 +30541,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1699</v>
       </c>
@@ -30503,8 +30557,8 @@
       <c r="E415" t="s">
         <v>627</v>
       </c>
-      <c r="F415" t="s">
-        <v>1461</v>
+      <c r="F415" s="7" t="s">
+        <v>1768</v>
       </c>
       <c r="G415" t="s">
         <v>1453</v>
@@ -30556,7 +30610,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1752</v>
       </c>
@@ -30572,8 +30626,8 @@
       <c r="E416" t="s">
         <v>627</v>
       </c>
-      <c r="F416" t="s">
-        <v>1461</v>
+      <c r="F416" s="7" t="s">
+        <v>1768</v>
       </c>
       <c r="G416" t="s">
         <v>1453</v>
@@ -30625,7 +30679,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1617</v>
       </c>
@@ -30641,8 +30695,8 @@
       <c r="E417" t="s">
         <v>852</v>
       </c>
-      <c r="F417" t="s">
-        <v>1461</v>
+      <c r="F417" s="7" t="s">
+        <v>1769</v>
       </c>
       <c r="G417" t="s">
         <v>1453</v>
@@ -30694,7 +30748,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1507</v>
       </c>
@@ -30710,8 +30764,8 @@
       <c r="E418" t="s">
         <v>852</v>
       </c>
-      <c r="F418" t="s">
-        <v>1461</v>
+      <c r="F418" s="7" t="s">
+        <v>1769</v>
       </c>
       <c r="G418" t="s">
         <v>1453</v>
@@ -30763,7 +30817,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1507</v>
       </c>
@@ -30779,8 +30833,8 @@
       <c r="E419" t="s">
         <v>852</v>
       </c>
-      <c r="F419" t="s">
-        <v>1461</v>
+      <c r="F419" s="7" t="s">
+        <v>1769</v>
       </c>
       <c r="G419" t="s">
         <v>1453</v>
@@ -30832,7 +30886,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1660</v>
       </c>
@@ -30848,8 +30902,8 @@
       <c r="E420" t="s">
         <v>328</v>
       </c>
-      <c r="F420" t="s">
-        <v>1461</v>
+      <c r="F420" s="7" t="s">
+        <v>1770</v>
       </c>
       <c r="G420" t="s">
         <v>1453</v>
@@ -30901,7 +30955,7 @@
         <v>14.394600000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1505</v>
       </c>
@@ -30917,8 +30971,8 @@
       <c r="E421" t="s">
         <v>328</v>
       </c>
-      <c r="F421" t="s">
-        <v>1461</v>
+      <c r="F421" s="7" t="s">
+        <v>1770</v>
       </c>
       <c r="G421" t="s">
         <v>1453</v>
@@ -30967,7 +31021,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="422" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1663</v>
       </c>
@@ -30983,8 +31037,8 @@
       <c r="E422" t="s">
         <v>328</v>
       </c>
-      <c r="F422" t="s">
-        <v>1461</v>
+      <c r="F422" s="7" t="s">
+        <v>1770</v>
       </c>
       <c r="G422" t="s">
         <v>1453</v>
@@ -31033,7 +31087,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="423" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1505</v>
       </c>
@@ -31049,8 +31103,8 @@
       <c r="E423" t="s">
         <v>328</v>
       </c>
-      <c r="F423" t="s">
-        <v>1461</v>
+      <c r="F423" s="7" t="s">
+        <v>1770</v>
       </c>
       <c r="G423" t="s">
         <v>1453</v>
@@ -31099,7 +31153,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1677</v>
       </c>
@@ -31115,8 +31169,8 @@
       <c r="E424" t="s">
         <v>827</v>
       </c>
-      <c r="F424" t="s">
-        <v>1740</v>
+      <c r="F424" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="G424" t="s">
         <v>1453</v>
@@ -31168,7 +31222,7 @@
         <v>12.753611111</v>
       </c>
     </row>
-    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1681</v>
       </c>
@@ -31184,8 +31238,8 @@
       <c r="E425" t="s">
         <v>827</v>
       </c>
-      <c r="F425" t="s">
-        <v>1740</v>
+      <c r="F425" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="G425" t="s">
         <v>1453</v>
@@ -31234,7 +31288,7 @@
         <v>7.4613888880000001</v>
       </c>
     </row>
-    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1682</v>
       </c>
@@ -31250,8 +31304,8 @@
       <c r="E426" t="s">
         <v>827</v>
       </c>
-      <c r="F426" t="s">
-        <v>1740</v>
+      <c r="F426" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="G426" t="s">
         <v>1453</v>
@@ -31303,7 +31357,7 @@
         <v>5.233333333</v>
       </c>
     </row>
-    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>857</v>
       </c>
@@ -31319,8 +31373,8 @@
       <c r="E427" t="s">
         <v>827</v>
       </c>
-      <c r="F427" t="s">
-        <v>1740</v>
+      <c r="F427" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="G427" t="s">
         <v>1453</v>
@@ -31369,7 +31423,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1520</v>
       </c>
@@ -31385,8 +31439,8 @@
       <c r="E428" t="s">
         <v>827</v>
       </c>
-      <c r="F428" t="s">
-        <v>1740</v>
+      <c r="F428" s="7" t="s">
+        <v>1771</v>
       </c>
       <c r="G428" t="s">
         <v>1453</v>
@@ -31438,7 +31492,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1282</v>
       </c>
@@ -31454,8 +31508,8 @@
       <c r="E429" t="s">
         <v>373</v>
       </c>
-      <c r="F429" t="s">
-        <v>1461</v>
+      <c r="F429" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G429" t="s">
         <v>1453</v>
@@ -31507,7 +31561,7 @@
         <v>14.758333332999999</v>
       </c>
     </row>
-    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1282</v>
       </c>
@@ -31523,8 +31577,8 @@
       <c r="E430" t="s">
         <v>373</v>
       </c>
-      <c r="F430" t="s">
-        <v>1461</v>
+      <c r="F430" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G430" t="s">
         <v>1453</v>
@@ -31576,7 +31630,7 @@
         <v>7.4613888880000001</v>
       </c>
     </row>
-    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1282</v>
       </c>
@@ -31592,8 +31646,8 @@
       <c r="E431" t="s">
         <v>373</v>
       </c>
-      <c r="F431" t="s">
-        <v>1461</v>
+      <c r="F431" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G431" t="s">
         <v>1453</v>
@@ -31642,7 +31696,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1583</v>
       </c>
@@ -31658,8 +31712,8 @@
       <c r="E432" t="s">
         <v>373</v>
       </c>
-      <c r="F432" t="s">
-        <v>1461</v>
+      <c r="F432" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G432" t="s">
         <v>1453</v>
@@ -31711,7 +31765,7 @@
         <v>-1.4044444439999999</v>
       </c>
     </row>
-    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1588</v>
       </c>
@@ -31727,8 +31781,8 @@
       <c r="E433" t="s">
         <v>373</v>
       </c>
-      <c r="F433" t="s">
-        <v>1461</v>
+      <c r="F433" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G433" t="s">
         <v>1453</v>
@@ -31780,7 +31834,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1513</v>
       </c>
@@ -31796,8 +31850,8 @@
       <c r="E434" t="s">
         <v>373</v>
       </c>
-      <c r="F434" t="s">
-        <v>1461</v>
+      <c r="F434" s="7" t="s">
+        <v>1772</v>
       </c>
       <c r="G434" t="s">
         <v>1453</v>
@@ -31846,7 +31900,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1559</v>
       </c>
@@ -31862,8 +31916,8 @@
       <c r="E435" t="s">
         <v>27</v>
       </c>
-      <c r="F435" t="s">
-        <v>1461</v>
+      <c r="F435" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="G435" t="s">
         <v>1453</v>
@@ -31912,7 +31966,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>130</v>
       </c>
@@ -31928,8 +31982,8 @@
       <c r="E436" t="s">
         <v>27</v>
       </c>
-      <c r="F436" t="s">
-        <v>1461</v>
+      <c r="F436" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="G436" t="s">
         <v>1453</v>
@@ -31981,7 +32035,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="437" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1562</v>
       </c>
@@ -31997,8 +32051,8 @@
       <c r="E437" t="s">
         <v>27</v>
       </c>
-      <c r="F437" t="s">
-        <v>1461</v>
+      <c r="F437" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="G437" t="s">
         <v>1453</v>
@@ -32047,7 +32101,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="438" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1511</v>
       </c>
@@ -32063,8 +32117,8 @@
       <c r="E438" t="s">
         <v>27</v>
       </c>
-      <c r="F438" t="s">
-        <v>1461</v>
+      <c r="F438" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="G438" t="s">
         <v>1453</v>
@@ -32113,7 +32167,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1511</v>
       </c>
@@ -32129,8 +32183,8 @@
       <c r="E439" t="s">
         <v>27</v>
       </c>
-      <c r="F439" t="s">
-        <v>1461</v>
+      <c r="F439" s="7" t="s">
+        <v>1773</v>
       </c>
       <c r="G439" t="s">
         <v>1453</v>
@@ -32179,7 +32233,7 @@
         <v>18.423888888</v>
       </c>
     </row>
-    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -32233,7 +32287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="441" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1220</v>
       </c>
@@ -32287,7 +32341,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>369</v>
       </c>
@@ -32353,7 +32407,7 @@
         <v>10.971944444</v>
       </c>
     </row>
-    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1244</v>
       </c>
@@ -32413,7 +32467,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1244</v>
       </c>
@@ -32473,7 +32527,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1244</v>
       </c>
@@ -32533,7 +32587,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1261</v>
       </c>
@@ -32593,7 +32647,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1267</v>
       </c>
@@ -32653,7 +32707,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1228</v>
       </c>
@@ -32707,7 +32761,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1236</v>
       </c>
@@ -32761,7 +32815,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1223</v>
       </c>
@@ -32821,7 +32875,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1239</v>
       </c>
@@ -32847,7 +32901,7 @@
         <v>374</v>
       </c>
       <c r="J451" t="str">
-        <f t="shared" ref="J451:J514" si="9">"https://www-wikidata-org/wiki/"&amp;I451</f>
+        <f t="shared" ref="J451:J513" si="9">"https://www-wikidata-org/wiki/"&amp;I451</f>
         <v>https://www-wikidata-org/wiki/Q21415674</v>
       </c>
       <c r="K451" t="s">
@@ -32881,7 +32935,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1258</v>
       </c>
@@ -32947,7 +33001,7 @@
         <v>14.758333332999999</v>
       </c>
     </row>
-    <row r="453" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1295</v>
       </c>
@@ -33011,7 +33065,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1299</v>
       </c>
@@ -33071,7 +33125,7 @@
         <v>-0.1275</v>
       </c>
     </row>
-    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1213</v>
       </c>
@@ -33122,7 +33176,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1216</v>
       </c>
@@ -33188,7 +33242,7 @@
         <v>7.4613888880000001</v>
       </c>
     </row>
-    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1218</v>
       </c>
@@ -33254,7 +33308,7 @@
         <v>14.741666666</v>
       </c>
     </row>
-    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1223</v>
       </c>
@@ -33314,7 +33368,7 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1297</v>
       </c>
@@ -33374,7 +33428,7 @@
         <v>19.758333332999999</v>
       </c>
     </row>
-    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1297</v>
       </c>
@@ -33434,7 +33488,7 @@
         <v>18.466699999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1297</v>
       </c>
@@ -33494,7 +33548,7 @@
         <v>26.833055555000001</v>
       </c>
     </row>
-    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1297</v>
       </c>
@@ -33554,7 +33608,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E463" t="s">
         <v>373</v>
       </c>
@@ -33581,11 +33635,11 @@
         <v>1741</v>
       </c>
       <c r="M463" t="str">
-        <f t="shared" ref="M463:M464" si="10">"https://www.wikidata.org/wiki/"&amp;L463</f>
+        <f t="shared" ref="M463" si="10">"https://www.wikidata.org/wiki/"&amp;L463</f>
         <v>https://www.wikidata.org/wiki/P1344</v>
       </c>
-      <c r="N463" t="s">
-        <v>1452</v>
+      <c r="N463" s="7" t="s">
+        <v>1777</v>
       </c>
       <c r="O463" t="s">
         <v>1453</v>
@@ -33594,74 +33648,88 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C464" t="s">
+        <v>850</v>
+      </c>
+      <c r="D464" t="s">
+        <v>851</v>
+      </c>
       <c r="E464" t="s">
-        <v>373</v>
+        <v>852</v>
       </c>
       <c r="F464" t="s">
-        <v>373</v>
+        <v>1110</v>
       </c>
       <c r="G464" t="s">
         <v>29</v>
       </c>
-      <c r="H464" t="s">
-        <v>1549</v>
-      </c>
       <c r="I464" t="s">
-        <v>374</v>
+        <v>1111</v>
       </c>
       <c r="J464" t="str">
         <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q21415674</v>
+        <v>https://www-wikidata-org/wiki/Q21509659</v>
       </c>
       <c r="K464" t="s">
-        <v>1742</v>
+        <v>58</v>
       </c>
       <c r="L464" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M464" t="str">
-        <f t="shared" si="10"/>
-        <v>https://www.wikidata.org/wiki/P1344</v>
+        <v>59</v>
+      </c>
+      <c r="M464" t="s">
+        <v>60</v>
       </c>
       <c r="N464" t="s">
-        <v>1461</v>
+        <v>1112</v>
       </c>
       <c r="O464" t="s">
-        <v>1453</v>
+        <v>157</v>
       </c>
       <c r="P464" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>412</v>
+      </c>
+      <c r="U464" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>849</v>
+        <v>732</v>
+      </c>
+      <c r="B465" t="s">
+        <v>733</v>
       </c>
       <c r="C465" t="s">
-        <v>850</v>
+        <v>734</v>
       </c>
       <c r="D465" t="s">
-        <v>851</v>
+        <v>735</v>
       </c>
       <c r="E465" t="s">
-        <v>852</v>
+        <v>736</v>
       </c>
       <c r="F465" t="s">
-        <v>1110</v>
+        <v>736</v>
       </c>
       <c r="G465" t="s">
         <v>29</v>
       </c>
       <c r="I465" t="s">
-        <v>1111</v>
+        <v>737</v>
       </c>
       <c r="J465" t="str">
         <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q21509659</v>
+        <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K465" t="s">
         <v>58</v>
@@ -33673,24 +33741,24 @@
         <v>60</v>
       </c>
       <c r="N465" t="s">
-        <v>1112</v>
+        <v>739</v>
       </c>
       <c r="O465" t="s">
         <v>157</v>
       </c>
       <c r="P465" t="s">
-        <v>411</v>
+        <v>740</v>
       </c>
       <c r="Q465" t="s">
-        <v>412</v>
+        <v>741</v>
       </c>
       <c r="U465" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="B466" t="s">
         <v>733</v>
@@ -33727,7 +33795,7 @@
         <v>60</v>
       </c>
       <c r="N466" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="O466" t="s">
         <v>157</v>
@@ -33738,13 +33806,19 @@
       <c r="Q466" t="s">
         <v>741</v>
       </c>
+      <c r="R466" t="s">
+        <v>582</v>
+      </c>
+      <c r="S466" t="s">
+        <v>65</v>
+      </c>
       <c r="U466" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="B467" t="s">
         <v>733</v>
@@ -33781,28 +33855,28 @@
         <v>60</v>
       </c>
       <c r="N467" t="s">
-        <v>748</v>
+        <v>559</v>
       </c>
       <c r="O467" t="s">
         <v>157</v>
       </c>
       <c r="P467" t="s">
-        <v>740</v>
+        <v>158</v>
       </c>
       <c r="Q467" t="s">
-        <v>741</v>
+        <v>159</v>
       </c>
       <c r="R467" t="s">
-        <v>582</v>
+        <v>773</v>
       </c>
       <c r="S467" t="s">
         <v>65</v>
       </c>
       <c r="U467" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>772</v>
       </c>
@@ -33841,19 +33915,19 @@
         <v>60</v>
       </c>
       <c r="N468" t="s">
-        <v>559</v>
+        <v>750</v>
       </c>
       <c r="O468" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="P468" t="s">
-        <v>158</v>
+        <v>751</v>
       </c>
       <c r="Q468" t="s">
-        <v>159</v>
+        <v>752</v>
       </c>
       <c r="R468" t="s">
-        <v>773</v>
+        <v>348</v>
       </c>
       <c r="S468" t="s">
         <v>65</v>
@@ -33862,7 +33936,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>772</v>
       </c>
@@ -33901,19 +33975,19 @@
         <v>60</v>
       </c>
       <c r="N469" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="O469" t="s">
         <v>61</v>
       </c>
       <c r="P469" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="Q469" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="R469" t="s">
-        <v>348</v>
+        <v>773</v>
       </c>
       <c r="S469" t="s">
         <v>65</v>
@@ -33922,9 +33996,9 @@
         <v>774</v>
       </c>
     </row>
-    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B470" t="s">
         <v>733</v>
@@ -33961,28 +34035,22 @@
         <v>60</v>
       </c>
       <c r="N470" t="s">
-        <v>768</v>
+        <v>568</v>
       </c>
       <c r="O470" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="P470" t="s">
-        <v>769</v>
+        <v>569</v>
       </c>
       <c r="Q470" t="s">
-        <v>770</v>
-      </c>
-      <c r="R470" t="s">
-        <v>773</v>
-      </c>
-      <c r="S470" t="s">
-        <v>65</v>
+        <v>570</v>
       </c>
       <c r="U470" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>775</v>
       </c>
@@ -34021,24 +34089,24 @@
         <v>60</v>
       </c>
       <c r="N471" t="s">
-        <v>568</v>
+        <v>777</v>
       </c>
       <c r="O471" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="P471" t="s">
-        <v>569</v>
+        <v>769</v>
       </c>
       <c r="Q471" t="s">
-        <v>570</v>
+        <v>770</v>
       </c>
       <c r="U471" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B472" t="s">
         <v>733</v>
@@ -34075,24 +34143,30 @@
         <v>60</v>
       </c>
       <c r="N472" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="O472" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="P472" t="s">
-        <v>769</v>
+        <v>740</v>
       </c>
       <c r="Q472" t="s">
-        <v>770</v>
+        <v>741</v>
+      </c>
+      <c r="R472" t="s">
+        <v>780</v>
+      </c>
+      <c r="S472" t="s">
+        <v>65</v>
       </c>
       <c r="U472" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="B473" t="s">
         <v>733</v>
@@ -34129,30 +34203,30 @@
         <v>60</v>
       </c>
       <c r="N473" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
       <c r="O473" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="P473" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="Q473" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="R473" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="S473" t="s">
         <v>65</v>
       </c>
       <c r="U473" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B474" t="s">
         <v>733</v>
@@ -34189,30 +34263,30 @@
         <v>60</v>
       </c>
       <c r="N474" t="s">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="O474" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="P474" t="s">
-        <v>751</v>
+        <v>411</v>
       </c>
       <c r="Q474" t="s">
-        <v>752</v>
+        <v>412</v>
       </c>
       <c r="R474" t="s">
-        <v>803</v>
+        <v>602</v>
       </c>
       <c r="S474" t="s">
         <v>65</v>
       </c>
       <c r="U474" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="B475" t="s">
         <v>733</v>
@@ -34240,39 +34314,45 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K475" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L475" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M475" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N475" t="s">
-        <v>806</v>
+        <v>862</v>
       </c>
       <c r="O475" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="P475" t="s">
-        <v>411</v>
+        <v>863</v>
       </c>
       <c r="Q475" t="s">
-        <v>412</v>
-      </c>
-      <c r="R475" t="s">
-        <v>602</v>
+        <v>864</v>
+      </c>
+      <c r="R475" s="6" t="s">
+        <v>865</v>
       </c>
       <c r="S475" t="s">
         <v>65</v>
       </c>
       <c r="U475" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="V475">
+        <v>50.428611111000002</v>
+      </c>
+      <c r="W475">
+        <v>7.4613888880000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>732</v>
+        <v>866</v>
       </c>
       <c r="B476" t="s">
         <v>733</v>
@@ -34300,45 +34380,45 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K476" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="L476" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="M476" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="N476" t="s">
-        <v>862</v>
+        <v>809</v>
       </c>
       <c r="O476" t="s">
         <v>43</v>
       </c>
       <c r="P476" t="s">
-        <v>863</v>
+        <v>810</v>
       </c>
       <c r="Q476" t="s">
-        <v>864</v>
+        <v>811</v>
       </c>
       <c r="R476" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="S476" t="s">
         <v>65</v>
       </c>
       <c r="U476" t="s">
-        <v>742</v>
+        <v>868</v>
       </c>
       <c r="V476">
-        <v>50.428611111000002</v>
+        <v>51.027777776999997</v>
       </c>
       <c r="W476">
-        <v>7.4613888880000001</v>
-      </c>
-    </row>
-    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>14.758333332999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>866</v>
+        <v>732</v>
       </c>
       <c r="B477" t="s">
         <v>733</v>
@@ -34358,6 +34438,7 @@
       <c r="G477" t="s">
         <v>29</v>
       </c>
+      <c r="H477"/>
       <c r="I477" t="s">
         <v>737</v>
       </c>
@@ -34366,45 +34447,38 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K477" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="L477" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="M477" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N477" t="s">
-        <v>809</v>
+        <v>1727</v>
       </c>
       <c r="O477" t="s">
-        <v>43</v>
-      </c>
-      <c r="P477" t="s">
-        <v>810</v>
+        <v>29</v>
+      </c>
+      <c r="P477" s="3" t="s">
+        <v>1728</v>
       </c>
       <c r="Q477" t="s">
-        <v>811</v>
-      </c>
-      <c r="R477" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="S477" t="s">
-        <v>65</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="R477"/>
+      <c r="S477"/>
+      <c r="T477"/>
       <c r="U477" t="s">
-        <v>868</v>
-      </c>
-      <c r="V477">
-        <v>51.027777776999997</v>
-      </c>
-      <c r="W477">
-        <v>14.758333332999999</v>
-      </c>
-    </row>
-    <row r="478" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="V477"/>
+      <c r="W477"/>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
       <c r="B478" t="s">
         <v>733</v>
@@ -34424,7 +34498,6 @@
       <c r="G478" t="s">
         <v>29</v>
       </c>
-      <c r="H478"/>
       <c r="I478" t="s">
         <v>737</v>
       </c>
@@ -34433,36 +34506,31 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K478" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L478" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M478" t="s">
         <v>34</v>
       </c>
       <c r="N478" t="s">
-        <v>1727</v>
+        <v>788</v>
       </c>
       <c r="O478" t="s">
         <v>29</v>
       </c>
-      <c r="P478" s="3" t="s">
-        <v>1728</v>
+      <c r="P478" t="s">
+        <v>789</v>
       </c>
       <c r="Q478" t="s">
-        <v>738</v>
-      </c>
-      <c r="R478"/>
-      <c r="S478"/>
-      <c r="T478"/>
+        <v>790</v>
+      </c>
       <c r="U478" t="s">
-        <v>742</v>
-      </c>
-      <c r="V478"/>
-      <c r="W478"/>
-    </row>
-    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>787</v>
       </c>
@@ -34501,22 +34569,22 @@
         <v>34</v>
       </c>
       <c r="N479" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="O479" t="s">
         <v>29</v>
       </c>
       <c r="P479" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="Q479" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="U479" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>787</v>
       </c>
@@ -34555,24 +34623,24 @@
         <v>34</v>
       </c>
       <c r="N480" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="O480" t="s">
         <v>29</v>
       </c>
       <c r="P480" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="Q480" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="U480" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B481" t="s">
         <v>733</v>
@@ -34600,33 +34668,39 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K481" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="L481" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="M481" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="N481" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="O481" t="s">
         <v>29</v>
       </c>
       <c r="P481" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="Q481" t="s">
-        <v>801</v>
+        <v>784</v>
+      </c>
+      <c r="R481" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="S481" t="s">
+        <v>65</v>
       </c>
       <c r="U481" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="B482" t="s">
         <v>733</v>
@@ -34654,39 +34728,39 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K482" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L482" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M482" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N482" t="s">
-        <v>786</v>
+        <v>150</v>
       </c>
       <c r="O482" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P482" t="s">
-        <v>783</v>
+        <v>62</v>
       </c>
       <c r="Q482" t="s">
-        <v>784</v>
+        <v>63</v>
       </c>
       <c r="R482" s="6" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="S482" t="s">
         <v>65</v>
       </c>
       <c r="U482" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>761</v>
+        <v>808</v>
       </c>
       <c r="B483" t="s">
         <v>733</v>
@@ -34714,39 +34788,45 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K483" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="L483" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="M483" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="N483" t="s">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="O483" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="P483" t="s">
-        <v>62</v>
+        <v>810</v>
       </c>
       <c r="Q483" t="s">
-        <v>63</v>
-      </c>
-      <c r="R483" s="6" t="s">
-        <v>762</v>
+        <v>811</v>
+      </c>
+      <c r="R483" t="s">
+        <v>812</v>
       </c>
       <c r="S483" t="s">
         <v>65</v>
       </c>
       <c r="U483" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+      <c r="V483">
+        <v>51.027777776999997</v>
+      </c>
+      <c r="W483">
+        <v>14.758333332999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
       <c r="B484" t="s">
         <v>733</v>
@@ -34774,45 +34854,39 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K484" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="L484" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M484" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="N484" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
       <c r="O484" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="P484" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
       <c r="Q484" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="R484" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
       <c r="S484" t="s">
         <v>65</v>
       </c>
       <c r="U484" t="s">
-        <v>813</v>
-      </c>
-      <c r="V484">
-        <v>51.027777776999997</v>
-      </c>
-      <c r="W484">
-        <v>14.758333332999999</v>
-      </c>
-    </row>
-    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B485" t="s">
         <v>733</v>
@@ -34849,32 +34923,32 @@
         <v>118</v>
       </c>
       <c r="N485" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="O485" t="s">
         <v>61</v>
       </c>
       <c r="P485" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="Q485" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="R485" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="S485" t="s">
         <v>65</v>
       </c>
       <c r="U485" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>755</v>
-      </c>
-      <c r="B486" t="s">
+        <v>767</v>
+      </c>
+      <c r="B486" s="2" t="s">
         <v>733</v>
       </c>
       <c r="C486" t="s">
@@ -34909,32 +34983,32 @@
         <v>118</v>
       </c>
       <c r="N486" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="O486" t="s">
         <v>61</v>
       </c>
       <c r="P486" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="Q486" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="R486" t="s">
-        <v>759</v>
+        <v>536</v>
       </c>
       <c r="S486" t="s">
         <v>65</v>
       </c>
       <c r="U486" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>767</v>
-      </c>
-      <c r="B487" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B487" t="s">
         <v>733</v>
       </c>
       <c r="C487" t="s">
@@ -34960,39 +35034,39 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K487" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L487" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M487" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="N487" t="s">
-        <v>768</v>
+        <v>420</v>
       </c>
       <c r="O487" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P487" t="s">
-        <v>769</v>
+        <v>421</v>
       </c>
       <c r="Q487" t="s">
-        <v>770</v>
+        <v>422</v>
       </c>
       <c r="R487" t="s">
-        <v>536</v>
+        <v>765</v>
       </c>
       <c r="S487" t="s">
         <v>65</v>
       </c>
       <c r="U487" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="B488" t="s">
         <v>733</v>
@@ -35020,105 +35094,99 @@
         <v>https://www-wikidata-org/wiki/Q21517694</v>
       </c>
       <c r="K488" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="L488" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="M488" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="N488" t="s">
-        <v>420</v>
+        <v>744</v>
       </c>
       <c r="O488" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="P488" t="s">
-        <v>421</v>
+        <v>745</v>
       </c>
       <c r="Q488" t="s">
-        <v>422</v>
+        <v>746</v>
       </c>
       <c r="R488" t="s">
-        <v>765</v>
+        <v>582</v>
       </c>
       <c r="S488" t="s">
         <v>65</v>
       </c>
       <c r="U488" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="V488">
+        <v>51.289722222000002</v>
+      </c>
+      <c r="W488">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>743</v>
+        <v>122</v>
       </c>
       <c r="B489" t="s">
-        <v>733</v>
+        <v>24</v>
       </c>
       <c r="C489" t="s">
-        <v>734</v>
+        <v>25</v>
       </c>
       <c r="D489" t="s">
-        <v>735</v>
+        <v>26</v>
       </c>
       <c r="E489" t="s">
-        <v>736</v>
+        <v>27</v>
       </c>
       <c r="F489" t="s">
-        <v>736</v>
+        <v>84</v>
       </c>
       <c r="G489" t="s">
         <v>29</v>
       </c>
       <c r="I489" t="s">
-        <v>737</v>
+        <v>85</v>
       </c>
       <c r="J489" t="str">
         <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q21517694</v>
+        <v>https://www-wikidata-org/wiki/Q2965351</v>
       </c>
       <c r="K489" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="L489" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="M489" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="N489" t="s">
-        <v>744</v>
+        <v>123</v>
       </c>
       <c r="O489" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P489" t="s">
-        <v>745</v>
+        <v>124</v>
       </c>
       <c r="Q489" t="s">
-        <v>746</v>
-      </c>
-      <c r="R489" t="s">
-        <v>582</v>
-      </c>
-      <c r="S489" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="U489" t="s">
-        <v>747</v>
-      </c>
-      <c r="V489">
-        <v>51.289722222000002</v>
-      </c>
-      <c r="W489">
-        <v>14.83</v>
-      </c>
-    </row>
-    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B490" t="s">
         <v>24</v>
@@ -35146,31 +35214,37 @@
         <v>https://www-wikidata-org/wiki/Q2965351</v>
       </c>
       <c r="K490" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="L490" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="M490" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="N490" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="O490" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P490" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="Q490" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="U490" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="V490">
+        <v>-33.5167</v>
+      </c>
+      <c r="W490">
+        <v>18.466699999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>83</v>
       </c>
@@ -35209,42 +35283,42 @@
         <v>89</v>
       </c>
       <c r="N491" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O491" t="s">
         <v>43</v>
       </c>
       <c r="P491" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Q491" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="U491" t="s">
         <v>93</v>
       </c>
       <c r="V491">
-        <v>-33.5167</v>
+        <v>-34.033333333000002</v>
       </c>
       <c r="W491">
-        <v>18.466699999999999</v>
-      </c>
-    </row>
-    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>83</v>
+        <v>510</v>
       </c>
       <c r="B492" t="s">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="C492" t="s">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="D492" t="s">
-        <v>26</v>
+        <v>444</v>
       </c>
       <c r="E492" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="F492" t="s">
         <v>84</v>
@@ -35269,48 +35343,45 @@
         <v>89</v>
       </c>
       <c r="N492" t="s">
-        <v>70</v>
+        <v>511</v>
       </c>
       <c r="O492" t="s">
         <v>43</v>
       </c>
       <c r="P492" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="Q492" t="s">
-        <v>72</v>
+        <v>513</v>
+      </c>
+      <c r="R492">
+        <v>1815</v>
+      </c>
+      <c r="S492" t="s">
+        <v>65</v>
       </c>
       <c r="U492" t="s">
-        <v>93</v>
+        <v>514</v>
       </c>
       <c r="V492">
-        <v>-34.033333333000002</v>
+        <v>-29</v>
       </c>
       <c r="W492">
-        <v>19.55</v>
-      </c>
-    </row>
-    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>510</v>
-      </c>
-      <c r="B493" t="s">
-        <v>442</v>
-      </c>
-      <c r="C493" t="s">
-        <v>443</v>
-      </c>
-      <c r="D493" t="s">
-        <v>444</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E493" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="F493" t="s">
         <v>84</v>
       </c>
       <c r="G493" t="s">
         <v>29</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1549</v>
       </c>
       <c r="I493" t="s">
         <v>85</v>
@@ -35320,95 +35391,92 @@
         <v>https://www-wikidata-org/wiki/Q2965351</v>
       </c>
       <c r="K493" t="s">
-        <v>87</v>
+        <v>1742</v>
       </c>
       <c r="L493" t="s">
-        <v>88</v>
-      </c>
-      <c r="M493" t="s">
-        <v>89</v>
-      </c>
-      <c r="N493" t="s">
-        <v>511</v>
+        <v>1741</v>
+      </c>
+      <c r="M493" t="str">
+        <f>"https://www.wikidata.org/wiki/"&amp;L493</f>
+        <v>https://www.wikidata.org/wiki/P1344</v>
+      </c>
+      <c r="N493" s="7" t="s">
+        <v>1778</v>
       </c>
       <c r="O493" t="s">
-        <v>43</v>
+        <v>1453</v>
       </c>
       <c r="P493" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q493" t="s">
-        <v>513</v>
-      </c>
-      <c r="R493">
-        <v>1815</v>
-      </c>
-      <c r="S493" t="s">
-        <v>65</v>
-      </c>
-      <c r="U493" t="s">
-        <v>514</v>
-      </c>
-      <c r="V493">
-        <v>-29</v>
-      </c>
-      <c r="W493">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>298</v>
+      </c>
+      <c r="B494" t="s">
+        <v>266</v>
+      </c>
+      <c r="C494" t="s">
+        <v>267</v>
+      </c>
+      <c r="D494" t="s">
+        <v>268</v>
+      </c>
       <c r="E494" t="s">
         <v>269</v>
       </c>
       <c r="F494" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="G494" t="s">
         <v>29</v>
       </c>
-      <c r="H494" t="s">
-        <v>1549</v>
-      </c>
       <c r="I494" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="J494" t="str">
         <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q2965351</v>
+        <v>https://www-wikidata-org/wiki/Q55123804</v>
       </c>
       <c r="K494" t="s">
-        <v>1742</v>
+        <v>87</v>
       </c>
       <c r="L494" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M494" t="str">
-        <f>"https://www.wikidata.org/wiki/"&amp;L494</f>
-        <v>https://www.wikidata.org/wiki/P1344</v>
+        <v>88</v>
+      </c>
+      <c r="M494" t="s">
+        <v>89</v>
       </c>
       <c r="N494" t="s">
-        <v>1461</v>
+        <v>299</v>
       </c>
       <c r="O494" t="s">
-        <v>1453</v>
+        <v>43</v>
       </c>
       <c r="P494" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>298</v>
-      </c>
-      <c r="B495" t="s">
-        <v>266</v>
-      </c>
-      <c r="C495" t="s">
-        <v>267</v>
-      </c>
-      <c r="D495" t="s">
-        <v>268</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="Q494" t="s">
+        <v>301</v>
+      </c>
+      <c r="R494" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="S494" t="s">
+        <v>303</v>
+      </c>
+      <c r="U494" t="s">
+        <v>304</v>
+      </c>
+      <c r="V494">
+        <v>51.507222222000003</v>
+      </c>
+      <c r="W494">
+        <v>-0.1275</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E495" t="s">
         <v>269</v>
       </c>
@@ -35417,6 +35485,9 @@
       </c>
       <c r="G495" t="s">
         <v>29</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1549</v>
       </c>
       <c r="I495" t="s">
         <v>309</v>
@@ -35426,85 +35497,88 @@
         <v>https://www-wikidata-org/wiki/Q55123804</v>
       </c>
       <c r="K495" t="s">
-        <v>87</v>
+        <v>1742</v>
       </c>
       <c r="L495" t="s">
-        <v>88</v>
-      </c>
-      <c r="M495" t="s">
-        <v>89</v>
-      </c>
-      <c r="N495" t="s">
-        <v>299</v>
+        <v>1741</v>
+      </c>
+      <c r="M495" t="str">
+        <f>"https://www.wikidata.org/wiki/"&amp;L495</f>
+        <v>https://www.wikidata.org/wiki/P1344</v>
+      </c>
+      <c r="N495" s="7" t="s">
+        <v>1778</v>
       </c>
       <c r="O495" t="s">
-        <v>43</v>
+        <v>1453</v>
       </c>
       <c r="P495" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q495" t="s">
-        <v>301</v>
-      </c>
-      <c r="R495" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="S495" t="s">
-        <v>303</v>
-      </c>
-      <c r="U495" t="s">
-        <v>304</v>
-      </c>
-      <c r="V495">
-        <v>51.507222222000003</v>
-      </c>
-      <c r="W495">
-        <v>-0.1275</v>
-      </c>
-    </row>
-    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B496" t="s">
+        <v>849</v>
+      </c>
+      <c r="C496" t="s">
+        <v>850</v>
+      </c>
+      <c r="D496" t="s">
+        <v>851</v>
+      </c>
       <c r="E496" t="s">
-        <v>269</v>
+        <v>852</v>
       </c>
       <c r="F496" t="s">
-        <v>308</v>
+        <v>852</v>
       </c>
       <c r="G496" t="s">
         <v>29</v>
       </c>
-      <c r="H496" t="s">
-        <v>1549</v>
-      </c>
       <c r="I496" t="s">
-        <v>309</v>
+        <v>853</v>
       </c>
       <c r="J496" t="str">
         <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q55123804</v>
+        <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K496" t="s">
-        <v>1742</v>
+        <v>58</v>
       </c>
       <c r="L496" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M496" t="str">
-        <f>"https://www.wikidata.org/wiki/"&amp;L496</f>
-        <v>https://www.wikidata.org/wiki/P1344</v>
+        <v>59</v>
+      </c>
+      <c r="M496" t="s">
+        <v>60</v>
       </c>
       <c r="N496" t="s">
-        <v>1461</v>
+        <v>173</v>
       </c>
       <c r="O496" t="s">
-        <v>1453</v>
+        <v>157</v>
       </c>
       <c r="P496" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="Q496" t="s">
+        <v>175</v>
+      </c>
+      <c r="R496" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S496" t="s">
+        <v>65</v>
+      </c>
+      <c r="U496" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="B497" t="s">
         <v>849</v>
@@ -35541,30 +35615,30 @@
         <v>60</v>
       </c>
       <c r="N497" t="s">
-        <v>173</v>
+        <v>1138</v>
       </c>
       <c r="O497" t="s">
         <v>157</v>
       </c>
       <c r="P497" t="s">
-        <v>174</v>
+        <v>501</v>
       </c>
       <c r="Q497" t="s">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="R497" s="6" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="S497" t="s">
         <v>65</v>
       </c>
       <c r="U497" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="B498" t="s">
         <v>849</v>
@@ -35601,30 +35675,30 @@
         <v>60</v>
       </c>
       <c r="N498" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="O498" t="s">
         <v>157</v>
       </c>
       <c r="P498" t="s">
-        <v>501</v>
+        <v>682</v>
       </c>
       <c r="Q498" t="s">
-        <v>502</v>
-      </c>
-      <c r="R498" s="6" t="s">
-        <v>1139</v>
+        <v>683</v>
+      </c>
+      <c r="R498" t="s">
+        <v>1149</v>
       </c>
       <c r="S498" t="s">
         <v>65</v>
       </c>
       <c r="U498" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B499" t="s">
         <v>849</v>
@@ -35661,30 +35735,30 @@
         <v>60</v>
       </c>
       <c r="N499" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="O499" t="s">
         <v>157</v>
       </c>
       <c r="P499" t="s">
-        <v>682</v>
+        <v>1153</v>
       </c>
       <c r="Q499" t="s">
-        <v>683</v>
+        <v>1154</v>
       </c>
       <c r="R499" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="S499" t="s">
         <v>65</v>
       </c>
       <c r="U499" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1151</v>
+        <v>848</v>
       </c>
       <c r="B500" t="s">
         <v>849</v>
@@ -35712,39 +35786,45 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K500" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L500" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M500" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N500" t="s">
-        <v>1152</v>
+        <v>744</v>
       </c>
       <c r="O500" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="P500" t="s">
-        <v>1153</v>
+        <v>745</v>
       </c>
       <c r="Q500" t="s">
-        <v>1154</v>
-      </c>
-      <c r="R500" t="s">
-        <v>1155</v>
+        <v>746</v>
+      </c>
+      <c r="R500" s="6" t="s">
+        <v>855</v>
       </c>
       <c r="S500" t="s">
         <v>65</v>
       </c>
       <c r="U500" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+      <c r="V500">
+        <v>51.289722222000002</v>
+      </c>
+      <c r="W500">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="B501" t="s">
         <v>849</v>
@@ -35772,45 +35852,45 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K501" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="L501" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="M501" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="N501" t="s">
-        <v>744</v>
+        <v>70</v>
       </c>
       <c r="O501" t="s">
         <v>43</v>
       </c>
       <c r="P501" t="s">
-        <v>745</v>
+        <v>71</v>
       </c>
       <c r="Q501" t="s">
-        <v>746</v>
+        <v>72</v>
       </c>
       <c r="R501" s="6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="S501" t="s">
         <v>65</v>
       </c>
       <c r="U501" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="V501">
-        <v>51.289722222000002</v>
+        <v>-34.033333333000002</v>
       </c>
       <c r="W501">
-        <v>14.83</v>
-      </c>
-    </row>
-    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>859</v>
+        <v>1141</v>
       </c>
       <c r="B502" t="s">
         <v>849</v>
@@ -35838,45 +35918,30 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K502" t="s">
-        <v>165</v>
+        <v>1726</v>
       </c>
       <c r="L502" t="s">
-        <v>166</v>
+        <v>1725</v>
       </c>
       <c r="M502" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N502" t="s">
-        <v>70</v>
+        <v>1142</v>
       </c>
       <c r="O502" t="s">
-        <v>43</v>
-      </c>
-      <c r="P502" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q502" t="s">
-        <v>72</v>
-      </c>
-      <c r="R502" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="S502" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="P502">
+        <v>3</v>
       </c>
       <c r="U502" t="s">
-        <v>861</v>
-      </c>
-      <c r="V502">
-        <v>-34.033333333000002</v>
-      </c>
-      <c r="W502">
-        <v>19.55</v>
-      </c>
-    </row>
-    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B503" t="s">
         <v>849</v>
@@ -35913,21 +35978,24 @@
         <v>34</v>
       </c>
       <c r="N503" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="O503" t="s">
         <v>29</v>
       </c>
       <c r="P503">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="S503" t="s">
+        <v>65</v>
       </c>
       <c r="U503" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="B504" t="s">
         <v>849</v>
@@ -35955,33 +36023,39 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K504" t="s">
-        <v>1726</v>
+        <v>126</v>
       </c>
       <c r="L504" t="s">
-        <v>1725</v>
+        <v>127</v>
       </c>
       <c r="M504" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="N504" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="O504" t="s">
         <v>29</v>
       </c>
-      <c r="P504">
-        <v>4</v>
+      <c r="P504" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R504" s="6" t="s">
+        <v>1134</v>
       </c>
       <c r="S504" t="s">
         <v>65</v>
       </c>
       <c r="U504" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="B505" t="s">
         <v>849</v>
@@ -36009,39 +36083,39 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K505" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L505" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M505" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N505" t="s">
-        <v>1136</v>
+        <v>150</v>
       </c>
       <c r="O505" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P505" t="s">
-        <v>1132</v>
+        <v>62</v>
       </c>
       <c r="Q505" t="s">
-        <v>1133</v>
+        <v>63</v>
       </c>
       <c r="R505" s="6" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="S505" t="s">
         <v>65</v>
       </c>
       <c r="U505" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
       <c r="B506" t="s">
         <v>849</v>
@@ -36069,39 +36143,45 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K506" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="L506" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="M506" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="N506" t="s">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="O506" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="P506" t="s">
-        <v>62</v>
+        <v>810</v>
       </c>
       <c r="Q506" t="s">
-        <v>63</v>
-      </c>
-      <c r="R506" s="6" t="s">
-        <v>1118</v>
+        <v>811</v>
+      </c>
+      <c r="R506" t="s">
+        <v>709</v>
       </c>
       <c r="S506" t="s">
         <v>65</v>
       </c>
       <c r="U506" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1102</v>
+      </c>
+      <c r="V506">
+        <v>51.027777776999997</v>
+      </c>
+      <c r="W506">
+        <v>14.758333332999999</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="B507" t="s">
         <v>849</v>
@@ -36138,36 +36218,36 @@
         <v>89</v>
       </c>
       <c r="N507" t="s">
-        <v>809</v>
+        <v>178</v>
       </c>
       <c r="O507" t="s">
         <v>43</v>
       </c>
       <c r="P507" t="s">
-        <v>810</v>
+        <v>179</v>
       </c>
       <c r="Q507" t="s">
-        <v>811</v>
+        <v>180</v>
       </c>
       <c r="R507" t="s">
-        <v>709</v>
+        <v>1115</v>
       </c>
       <c r="S507" t="s">
-        <v>65</v>
+        <v>462</v>
       </c>
       <c r="U507" t="s">
-        <v>1102</v>
+        <v>1116</v>
       </c>
       <c r="V507">
-        <v>51.027777776999997</v>
+        <v>51.016666665999999</v>
       </c>
       <c r="W507">
-        <v>14.758333332999999</v>
-      </c>
-    </row>
-    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>14.741666666</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="B508" t="s">
         <v>849</v>
@@ -36187,6 +36267,7 @@
       <c r="G508" t="s">
         <v>29</v>
       </c>
+      <c r="H508"/>
       <c r="I508" t="s">
         <v>853</v>
       </c>
@@ -36204,36 +36285,37 @@
         <v>89</v>
       </c>
       <c r="N508" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O508" t="s">
         <v>43</v>
       </c>
       <c r="P508" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q508" t="s">
-        <v>180</v>
-      </c>
-      <c r="R508" t="s">
-        <v>1115</v>
+        <v>185</v>
+      </c>
+      <c r="R508">
+        <v>1841</v>
       </c>
       <c r="S508" t="s">
-        <v>462</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T508"/>
       <c r="U508" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="V508">
-        <v>51.016666665999999</v>
+        <v>53</v>
       </c>
       <c r="W508">
-        <v>14.741666666</v>
-      </c>
-    </row>
-    <row r="509" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B509" t="s">
         <v>849</v>
@@ -36271,37 +36353,37 @@
         <v>89</v>
       </c>
       <c r="N509" t="s">
-        <v>183</v>
+        <v>1126</v>
       </c>
       <c r="O509" t="s">
         <v>43</v>
       </c>
       <c r="P509" t="s">
-        <v>184</v>
+        <v>1127</v>
       </c>
       <c r="Q509" t="s">
-        <v>185</v>
-      </c>
-      <c r="R509">
-        <v>1841</v>
+        <v>1128</v>
+      </c>
+      <c r="R509" t="s">
+        <v>803</v>
       </c>
       <c r="S509" t="s">
         <v>65</v>
       </c>
       <c r="T509"/>
       <c r="U509" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="V509">
-        <v>53</v>
+        <v>49.712371238999999</v>
       </c>
       <c r="W509">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17.903232874</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
       <c r="B510" t="s">
         <v>849</v>
@@ -36321,7 +36403,6 @@
       <c r="G510" t="s">
         <v>29</v>
       </c>
-      <c r="H510"/>
       <c r="I510" t="s">
         <v>853</v>
       </c>
@@ -36330,46 +36411,39 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K510" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="L510" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M510" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="N510" t="s">
-        <v>1126</v>
+        <v>750</v>
       </c>
       <c r="O510" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="P510" t="s">
-        <v>1127</v>
+        <v>751</v>
       </c>
       <c r="Q510" t="s">
-        <v>1128</v>
-      </c>
-      <c r="R510" t="s">
-        <v>803</v>
+        <v>752</v>
+      </c>
+      <c r="R510" s="6" t="s">
+        <v>1104</v>
       </c>
       <c r="S510" t="s">
         <v>65</v>
       </c>
-      <c r="T510"/>
       <c r="U510" t="s">
-        <v>1129</v>
-      </c>
-      <c r="V510">
-        <v>49.712371238999999</v>
-      </c>
-      <c r="W510">
-        <v>17.903232874</v>
-      </c>
-    </row>
-    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B511" t="s">
         <v>849</v>
@@ -36397,39 +36471,39 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K511" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L511" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M511" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="N511" t="s">
-        <v>750</v>
+        <v>420</v>
       </c>
       <c r="O511" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="P511" t="s">
-        <v>751</v>
+        <v>421</v>
       </c>
       <c r="Q511" t="s">
-        <v>752</v>
+        <v>422</v>
       </c>
       <c r="R511" s="6" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="S511" t="s">
         <v>65</v>
       </c>
       <c r="U511" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="B512" t="s">
         <v>849</v>
@@ -36457,49 +36531,43 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K512" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="L512" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="M512" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="N512" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="O512" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="P512" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="Q512" t="s">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="R512" s="6" t="s">
-        <v>1107</v>
+        <v>1121</v>
       </c>
       <c r="S512" t="s">
         <v>65</v>
       </c>
       <c r="U512" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B513" t="s">
-        <v>849</v>
-      </c>
-      <c r="C513" t="s">
-        <v>850</v>
-      </c>
-      <c r="D513" t="s">
-        <v>851</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="V512">
+        <v>-29</v>
+      </c>
+      <c r="W512">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E513" t="s">
         <v>852</v>
       </c>
@@ -36508,6 +36576,9 @@
       </c>
       <c r="G513" t="s">
         <v>29</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1549</v>
       </c>
       <c r="I513" t="s">
         <v>853</v>
@@ -36517,97 +36588,94 @@
         <v>https://www-wikidata-org/wiki/Q55853813</v>
       </c>
       <c r="K513" t="s">
-        <v>67</v>
+        <v>1742</v>
       </c>
       <c r="L513" t="s">
-        <v>68</v>
-      </c>
-      <c r="M513" t="s">
-        <v>69</v>
-      </c>
-      <c r="N513" t="s">
-        <v>511</v>
+        <v>1741</v>
+      </c>
+      <c r="M513" t="str">
+        <f>"https://www.wikidata.org/wiki/"&amp;L513</f>
+        <v>https://www.wikidata.org/wiki/P1344</v>
+      </c>
+      <c r="N513" s="7" t="s">
+        <v>1769</v>
       </c>
       <c r="O513" t="s">
-        <v>43</v>
+        <v>1453</v>
       </c>
       <c r="P513" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q513" t="s">
-        <v>513</v>
-      </c>
-      <c r="R513" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="S513" t="s">
-        <v>65</v>
-      </c>
-      <c r="U513" t="s">
-        <v>1122</v>
-      </c>
-      <c r="V513">
-        <v>-29</v>
-      </c>
-      <c r="W513">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>340</v>
+      </c>
+      <c r="B514" t="s">
+        <v>266</v>
+      </c>
+      <c r="C514" t="s">
+        <v>267</v>
+      </c>
+      <c r="D514" t="s">
+        <v>268</v>
+      </c>
       <c r="E514" t="s">
-        <v>852</v>
+        <v>269</v>
       </c>
       <c r="F514" t="s">
-        <v>852</v>
+        <v>341</v>
       </c>
       <c r="G514" t="s">
         <v>29</v>
       </c>
-      <c r="H514" t="s">
-        <v>1549</v>
-      </c>
       <c r="I514" t="s">
-        <v>853</v>
+        <v>342</v>
       </c>
       <c r="J514" t="str">
-        <f t="shared" si="9"/>
-        <v>https://www-wikidata-org/wiki/Q55853813</v>
+        <f t="shared" ref="J514:J521" si="11">"https://www-wikidata-org/wiki/"&amp;I514</f>
+        <v>https://www-wikidata-org/wiki/Q55899303</v>
       </c>
       <c r="K514" t="s">
-        <v>1742</v>
+        <v>58</v>
       </c>
       <c r="L514" t="s">
-        <v>1741</v>
-      </c>
-      <c r="M514" t="str">
-        <f>"https://www.wikidata.org/wiki/"&amp;L514</f>
-        <v>https://www.wikidata.org/wiki/P1344</v>
+        <v>59</v>
+      </c>
+      <c r="M514" t="s">
+        <v>60</v>
       </c>
       <c r="N514" t="s">
-        <v>1461</v>
+        <v>343</v>
       </c>
       <c r="O514" t="s">
-        <v>1453</v>
+        <v>157</v>
       </c>
       <c r="P514" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="Q514" t="s">
+        <v>345</v>
+      </c>
+      <c r="U514" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>340</v>
+        <v>1436</v>
       </c>
       <c r="B515" t="s">
-        <v>266</v>
+        <v>587</v>
       </c>
       <c r="C515" t="s">
-        <v>267</v>
+        <v>588</v>
       </c>
       <c r="D515" t="s">
-        <v>268</v>
+        <v>589</v>
       </c>
       <c r="E515" t="s">
-        <v>269</v>
+        <v>590</v>
       </c>
       <c r="F515" t="s">
         <v>341</v>
@@ -36619,7 +36687,7 @@
         <v>342</v>
       </c>
       <c r="J515" t="str">
-        <f t="shared" ref="J515:J522" si="11">"https://www-wikidata-org/wiki/"&amp;I515</f>
+        <f t="shared" si="11"/>
         <v>https://www-wikidata-org/wiki/Q55899303</v>
       </c>
       <c r="K515" t="s">
@@ -36643,179 +36711,179 @@
       <c r="Q515" t="s">
         <v>345</v>
       </c>
+      <c r="R515" t="s">
+        <v>134</v>
+      </c>
+      <c r="S515" t="s">
+        <v>65</v>
+      </c>
       <c r="U515" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1436</v>
+        <v>732</v>
       </c>
       <c r="B516" t="s">
-        <v>587</v>
+        <v>733</v>
       </c>
       <c r="C516" t="s">
-        <v>588</v>
+        <v>734</v>
       </c>
       <c r="D516" t="s">
-        <v>589</v>
+        <v>735</v>
       </c>
       <c r="E516" t="s">
-        <v>590</v>
+        <v>736</v>
       </c>
       <c r="F516" t="s">
-        <v>341</v>
+        <v>1727</v>
       </c>
       <c r="G516" t="s">
         <v>29</v>
       </c>
       <c r="I516" t="s">
-        <v>342</v>
+        <v>1729</v>
       </c>
       <c r="J516" t="str">
         <f t="shared" si="11"/>
-        <v>https://www-wikidata-org/wiki/Q55899303</v>
+        <v>https://www-wikidata-org/wiki/Q55905242</v>
       </c>
       <c r="K516" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L516" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M516" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N516" t="s">
-        <v>343</v>
+        <v>736</v>
       </c>
       <c r="O516" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P516" t="s">
-        <v>344</v>
+        <v>737</v>
       </c>
       <c r="Q516" t="s">
-        <v>345</v>
-      </c>
-      <c r="R516" t="s">
-        <v>134</v>
-      </c>
-      <c r="S516" t="s">
-        <v>65</v>
+        <v>738</v>
       </c>
       <c r="U516" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>732</v>
+        <v>905</v>
       </c>
       <c r="B517" t="s">
-        <v>733</v>
+        <v>657</v>
       </c>
       <c r="C517" t="s">
-        <v>734</v>
+        <v>658</v>
       </c>
       <c r="D517" t="s">
-        <v>735</v>
+        <v>659</v>
       </c>
       <c r="E517" t="s">
-        <v>736</v>
+        <v>660</v>
       </c>
       <c r="F517" t="s">
-        <v>1727</v>
+        <v>660</v>
       </c>
       <c r="G517" t="s">
         <v>29</v>
       </c>
       <c r="I517" t="s">
-        <v>1729</v>
+        <v>906</v>
       </c>
       <c r="J517" t="str">
         <f t="shared" si="11"/>
-        <v>https://www-wikidata-org/wiki/Q55905242</v>
+        <v>https://www-wikidata-org/wiki/Q94741320</v>
       </c>
       <c r="K517" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="L517" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="M517" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="N517" t="s">
-        <v>736</v>
+        <v>908</v>
       </c>
       <c r="O517" t="s">
         <v>29</v>
       </c>
       <c r="P517" t="s">
-        <v>737</v>
+        <v>591</v>
       </c>
       <c r="Q517" t="s">
-        <v>738</v>
+        <v>592</v>
       </c>
       <c r="U517" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>905</v>
+        <v>381</v>
       </c>
       <c r="B518" t="s">
-        <v>657</v>
+        <v>382</v>
       </c>
       <c r="C518" t="s">
-        <v>658</v>
+        <v>383</v>
       </c>
       <c r="D518" t="s">
-        <v>659</v>
+        <v>384</v>
       </c>
       <c r="E518" t="s">
-        <v>660</v>
+        <v>385</v>
       </c>
       <c r="F518" t="s">
-        <v>660</v>
+        <v>386</v>
       </c>
       <c r="G518" t="s">
         <v>29</v>
       </c>
       <c r="I518" t="s">
-        <v>906</v>
+        <v>387</v>
       </c>
       <c r="J518" t="str">
         <f t="shared" si="11"/>
-        <v>https://www-wikidata-org/wiki/Q94741320</v>
+        <v>https://www-wikidata-org/wiki/Q94807583</v>
       </c>
       <c r="K518" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="L518" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="M518" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="N518" t="s">
-        <v>908</v>
+        <v>389</v>
       </c>
       <c r="O518" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="P518" t="s">
-        <v>591</v>
+        <v>158</v>
       </c>
       <c r="Q518" t="s">
-        <v>592</v>
+        <v>159</v>
       </c>
       <c r="U518" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>381</v>
       </c>
@@ -36845,33 +36913,33 @@
         <v>https://www-wikidata-org/wiki/Q94807583</v>
       </c>
       <c r="K519" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L519" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M519" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N519" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O519" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P519" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
       <c r="Q519" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
       <c r="U519" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="B520" t="s">
         <v>382</v>
@@ -36899,144 +36967,85 @@
         <v>https://www-wikidata-org/wiki/Q94807583</v>
       </c>
       <c r="K520" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="L520" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="M520" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="N520" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="O520" t="s">
-        <v>29</v>
-      </c>
-      <c r="P520" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q520" t="s">
-        <v>393</v>
+        <v>363</v>
+      </c>
+      <c r="P520" s="4">
+        <v>1769</v>
       </c>
       <c r="U520" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>403</v>
+        <v>787</v>
       </c>
       <c r="B521" t="s">
-        <v>382</v>
+        <v>733</v>
       </c>
       <c r="C521" t="s">
-        <v>383</v>
+        <v>734</v>
       </c>
       <c r="D521" t="s">
-        <v>384</v>
+        <v>735</v>
       </c>
       <c r="E521" t="s">
-        <v>385</v>
+        <v>736</v>
       </c>
       <c r="F521" t="s">
-        <v>386</v>
+        <v>799</v>
       </c>
       <c r="G521" t="s">
         <v>29</v>
       </c>
       <c r="I521" t="s">
-        <v>387</v>
+        <v>800</v>
       </c>
       <c r="J521" t="str">
         <f t="shared" si="11"/>
-        <v>https://www-wikidata-org/wiki/Q94807583</v>
+        <v>https://www-wikidata-org/wiki/Q94854997</v>
       </c>
       <c r="K521" t="s">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="L521" t="s">
-        <v>361</v>
+        <v>33</v>
       </c>
       <c r="M521" t="s">
-        <v>362</v>
+        <v>48</v>
       </c>
       <c r="N521" t="s">
-        <v>360</v>
+        <v>736</v>
       </c>
       <c r="O521" t="s">
-        <v>363</v>
-      </c>
-      <c r="P521" s="4">
-        <v>1769</v>
+        <v>29</v>
+      </c>
+      <c r="P521" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q521" t="s">
+        <v>738</v>
       </c>
       <c r="U521" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
-        <v>787</v>
-      </c>
-      <c r="B522" t="s">
-        <v>733</v>
-      </c>
-      <c r="C522" t="s">
-        <v>734</v>
-      </c>
-      <c r="D522" t="s">
-        <v>735</v>
-      </c>
-      <c r="E522" t="s">
-        <v>736</v>
-      </c>
-      <c r="F522" t="s">
-        <v>799</v>
-      </c>
-      <c r="G522" t="s">
-        <v>29</v>
-      </c>
-      <c r="I522" t="s">
-        <v>800</v>
-      </c>
-      <c r="J522" t="str">
-        <f t="shared" si="11"/>
-        <v>https://www-wikidata-org/wiki/Q94854997</v>
-      </c>
-      <c r="K522" t="s">
-        <v>32</v>
-      </c>
-      <c r="L522" t="s">
-        <v>33</v>
-      </c>
-      <c r="M522" t="s">
-        <v>48</v>
-      </c>
-      <c r="N522" t="s">
-        <v>736</v>
-      </c>
-      <c r="O522" t="s">
-        <v>29</v>
-      </c>
-      <c r="P522" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q522" t="s">
-        <v>738</v>
-      </c>
-      <c r="U522" t="s">
         <v>791</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W522" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="angestrebtes Ziel"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W522">
-      <sortCondition ref="I1:I522"/>
+  <autoFilter ref="A1:W521" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W521">
+      <sortCondition ref="I1:I521"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -37044,8 +37053,8 @@
     <hyperlink ref="B360" r:id="rId1" xr:uid="{2EBBB260-C1FE-AD4C-8686-83271D7BF5D9}"/>
     <hyperlink ref="B374" r:id="rId2" xr:uid="{1898E434-74EE-F04E-814C-DFB06FDDD67B}"/>
     <hyperlink ref="B450" r:id="rId3" xr:uid="{12F9E47F-99CC-5440-8176-9553C89D5A39}"/>
-    <hyperlink ref="B465" r:id="rId4" xr:uid="{083EE8F0-4224-BE46-B492-B51E0A9C21FF}"/>
-    <hyperlink ref="B487" r:id="rId5" xr:uid="{F3A72354-F20F-6845-83E2-FA9B28524B6B}"/>
+    <hyperlink ref="B464" r:id="rId4" xr:uid="{083EE8F0-4224-BE46-B492-B51E0A9C21FF}"/>
+    <hyperlink ref="B486" r:id="rId5" xr:uid="{F3A72354-F20F-6845-83E2-FA9B28524B6B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/5.4.3_EL/graphen_bereinigt.xlsx
+++ b/data/5.4.3_EL/graphen_bereinigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svetlanayakutina/Documents/GitHub/Digitalisat2Graph/data/5.4.3_EL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A14F95-7B98-3240-90A5-75E79064CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B23E5B-B831-964C-9C4E-928AEF89F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21680" yWindow="500" windowWidth="22500" windowHeight="23160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5781,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S244" sqref="S244"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
